--- a/nps_parks_master_df.xlsx
+++ b/nps_parks_master_df.xlsx
@@ -9759,7 +9759,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>feha</t>
+          <t>valr</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -9769,14 +9769,14 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>40.70731192</v>
+        <v>36.74793528</v>
       </c>
       <c r="G304" t="n">
-        <v>-74.01025636</v>
+        <v>-131.3662323</v>
       </c>
     </row>
     <row r="305">

--- a/nps_parks_master_df.xlsx
+++ b/nps_parks_master_df.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:H422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -397,6 +401,11 @@
           <t>long</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>date_established</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -428,6 +437,7 @@
       <c r="G2" t="n">
         <v>-85.67330523</v>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -459,6 +469,9 @@
       <c r="G3" t="n">
         <v>-68.30063316</v>
       </c>
+      <c r="H3" s="2" t="n">
+        <v>6997</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -490,6 +503,7 @@
       <c r="G4" t="n">
         <v>-71.01160356</v>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -521,6 +535,7 @@
       <c r="G5" t="n">
         <v>-74.00447358</v>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -552,6 +567,7 @@
       <c r="G6" t="n">
         <v>-103.753886</v>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -583,6 +599,7 @@
       <c r="G7" t="n">
         <v>-156.112002</v>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -614,6 +631,7 @@
       <c r="G8" t="n">
         <v>-101.6717008</v>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -645,6 +663,7 @@
       <c r="G9" t="n">
         <v>-78.57431622</v>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -676,6 +695,7 @@
       <c r="G10" t="n">
         <v>-101.075821</v>
       </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -707,6 +727,7 @@
       <c r="G11" t="n">
         <v>-84.12988898</v>
       </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -738,6 +759,7 @@
       <c r="G12" t="n">
         <v>-82.83709021</v>
       </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -769,6 +791,7 @@
       <c r="G13" t="n">
         <v>-157.5544362</v>
       </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -800,6 +823,7 @@
       <c r="G14" t="n">
         <v>-157.5544362</v>
       </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -831,6 +855,7 @@
       <c r="G15" t="n">
         <v>-77.73828017</v>
       </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -862,6 +887,7 @@
       <c r="G16" t="n">
         <v>-90.66045665</v>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -893,6 +919,7 @@
       <c r="G17" t="n">
         <v>-76.43375479999999</v>
       </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -924,6 +951,7 @@
       <c r="G18" t="n">
         <v>-78.79856982</v>
       </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -955,6 +983,9 @@
       <c r="G19" t="n">
         <v>-109.5863666</v>
       </c>
+      <c r="H19" s="2" t="n">
+        <v>26249</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -986,6 +1017,7 @@
       <c r="G20" t="n">
         <v>-91.30837178</v>
       </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1017,6 +1049,7 @@
       <c r="G21" t="n">
         <v>-77.0734786987305</v>
       </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1048,6 +1081,7 @@
       <c r="G22" t="n">
         <v>-75.24524611</v>
       </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1079,6 +1113,7 @@
       <c r="G23" t="n">
         <v>-107.9999245</v>
       </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1110,6 +1145,9 @@
       <c r="G24" t="n">
         <v>-102.482942</v>
       </c>
+      <c r="H24" s="2" t="n">
+        <v>28804</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1141,6 +1179,7 @@
       <c r="G25" t="n">
         <v>-106.3317124</v>
       </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1172,6 +1211,7 @@
       <c r="G26" t="n">
         <v>-77.00381882000001</v>
       </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1203,6 +1243,7 @@
       <c r="G27" t="n">
         <v>-103.4266499</v>
       </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1234,6 +1275,7 @@
       <c r="G28" t="n">
         <v>-164.4086432</v>
       </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1265,6 +1307,9 @@
       <c r="G29" t="n">
         <v>-103.2297897</v>
       </c>
+      <c r="H29" s="2" t="n">
+        <v>16235</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1296,6 +1341,7 @@
       <c r="G30" t="n">
         <v>-81.08120629</v>
       </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1327,6 +1373,7 @@
       <c r="G31" t="n">
         <v>-113.6458443</v>
       </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1358,6 +1405,7 @@
       <c r="G32" t="n">
         <v>-84.66506688</v>
       </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1389,6 +1437,7 @@
       <c r="G33" t="n">
         <v>-94.3384557</v>
       </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1420,6 +1469,7 @@
       <c r="G34" t="n">
         <v>-108.1443943</v>
       </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1451,6 +1501,7 @@
       <c r="G35" t="n">
         <v>-86.81466674804692</v>
       </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1482,6 +1533,9 @@
       <c r="G36" t="n">
         <v>-80.21023851</v>
       </c>
+      <c r="H36" s="2" t="n">
+        <v>29400</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1513,6 +1567,9 @@
       <c r="G37" t="n">
         <v>-107.7242756</v>
       </c>
+      <c r="H37" s="2" t="n">
+        <v>36454</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1540,6 +1597,7 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1571,6 +1629,7 @@
       <c r="G39" t="n">
         <v>-81.04209990000001</v>
       </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1602,6 +1661,7 @@
       <c r="G40" t="n">
         <v>-80.98366657</v>
       </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1633,6 +1693,7 @@
       <c r="G41" t="n">
         <v>-79.73185832999999</v>
       </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1664,6 +1725,7 @@
       <c r="G42" t="n">
         <v>-71.06764181</v>
       </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1695,6 +1757,7 @@
       <c r="G43" t="n">
         <v>-70.93941138</v>
       </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1726,6 +1789,7 @@
       <c r="G44" t="n">
         <v>-71.05536763000001</v>
       </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1757,6 +1821,7 @@
       <c r="G45" t="n">
         <v>-88.72889343</v>
       </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1788,6 +1853,7 @@
       <c r="G46" t="n">
         <v>-95.67614437</v>
       </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1819,6 +1885,9 @@
       <c r="G47" t="n">
         <v>-112.1826689</v>
       </c>
+      <c r="H47" s="2" t="n">
+        <v>10283</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1850,6 +1919,7 @@
       <c r="G48" t="n">
         <v>-64.6222179</v>
       </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1881,6 +1951,7 @@
       <c r="G49" t="n">
         <v>-92.90761584000001</v>
       </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1912,6 +1983,7 @@
       <c r="G50" t="n">
         <v>-117.2415985</v>
       </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1939,6 +2011,7 @@
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1970,6 +2043,7 @@
       <c r="G52" t="n">
         <v>-80.75419576</v>
       </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2001,6 +2075,7 @@
       <c r="G53" t="n">
         <v>-93.00131976999999</v>
       </c>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2032,6 +2107,7 @@
       <c r="G54" t="n">
         <v>-109.3388303</v>
       </c>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2063,6 +2139,9 @@
       <c r="G55" t="n">
         <v>-109.8801624</v>
       </c>
+      <c r="H55" s="2" t="n">
+        <v>23632</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2094,6 +2173,7 @@
       <c r="G56" t="n">
         <v>-70.04319832</v>
       </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2125,6 +2205,7 @@
       <c r="G57" t="n">
         <v>-75.65061111999999</v>
       </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2156,6 +2237,7 @@
       <c r="G58" t="n">
         <v>-163.5037786</v>
       </c>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2187,6 +2269,7 @@
       <c r="G59" t="n">
         <v>-76.34319082</v>
       </c>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2218,6 +2301,9 @@
       <c r="G60" t="n">
         <v>-111.247048377991</v>
       </c>
+      <c r="H60" s="2" t="n">
+        <v>26285</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2249,6 +2335,7 @@
       <c r="G61" t="n">
         <v>-103.9710427</v>
       </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2280,6 +2367,7 @@
       <c r="G62" t="n">
         <v>-82.45106258</v>
       </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2311,6 +2399,9 @@
       <c r="G63" t="n">
         <v>-104.5529688</v>
       </c>
+      <c r="H63" s="2" t="n">
+        <v>11092</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2342,6 +2433,7 @@
       <c r="G64" t="n">
         <v>-77.02431104</v>
       </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2373,6 +2465,7 @@
       <c r="G65" t="n">
         <v>-111.5325383</v>
       </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2404,6 +2497,7 @@
       <c r="G66" t="n">
         <v>-81.31217173</v>
       </c>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2435,6 +2529,7 @@
       <c r="G67" t="n">
         <v>-74.01680558</v>
       </c>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2466,6 +2561,7 @@
       <c r="G68" t="n">
         <v>-115.0935606</v>
       </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2497,6 +2593,7 @@
       <c r="G69" t="n">
         <v>-77.46417665</v>
       </c>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2528,6 +2625,7 @@
       <c r="G70" t="n">
         <v>-112.845268</v>
       </c>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2559,6 +2657,7 @@
       <c r="G71" t="n">
         <v>-78.30618934</v>
       </c>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2590,6 +2689,7 @@
       <c r="G72" t="n">
         <v>-107.9560076</v>
       </c>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2621,6 +2721,7 @@
       <c r="G73" t="n">
         <v>-106.4544011</v>
       </c>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2652,6 +2753,9 @@
       <c r="G74" t="n">
         <v>-119.9112735</v>
       </c>
+      <c r="H74" s="2" t="n">
+        <v>29285</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2683,6 +2787,7 @@
       <c r="G75" t="n">
         <v>-79.82487582</v>
       </c>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2714,6 +2819,7 @@
       <c r="G76" t="n">
         <v>-83.89328575</v>
       </c>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2745,6 +2851,7 @@
       <c r="G77" t="n">
         <v>-84.28953177</v>
       </c>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2776,6 +2883,7 @@
       <c r="G78" t="n">
         <v>-77.89763546</v>
       </c>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2807,6 +2915,7 @@
       <c r="G79" t="n">
         <v>-85.28749537</v>
       </c>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2838,6 +2947,7 @@
       <c r="G80" t="n">
         <v>-97.00715669</v>
       </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2869,6 +2979,7 @@
       <c r="G81" t="n">
         <v>-109.341607</v>
       </c>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2900,6 +3011,7 @@
       <c r="G82" t="n">
         <v>-64.72906227</v>
       </c>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2931,6 +3043,7 @@
       <c r="G83" t="n">
         <v>-113.7124097</v>
       </c>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2962,6 +3075,7 @@
       <c r="G84" t="n">
         <v>-77.14009689</v>
       </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2993,6 +3107,7 @@
       <c r="G85" t="n">
         <v>-76.61998122999999</v>
       </c>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3024,6 +3139,7 @@
       <c r="G86" t="n">
         <v>-108.6920709</v>
       </c>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3055,6 +3171,9 @@
       <c r="G87" t="n">
         <v>-80.74867805</v>
       </c>
+      <c r="H87" s="2" t="n">
+        <v>37935</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3086,6 +3205,7 @@
       <c r="G88" t="n">
         <v>-77.04409305999999</v>
       </c>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3117,6 +3237,7 @@
       <c r="G89" t="n">
         <v>-110.2561574</v>
       </c>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3148,6 +3269,7 @@
       <c r="G90" t="n">
         <v>-81.80935433000001</v>
       </c>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3179,6 +3301,9 @@
       <c r="G91" t="n">
         <v>-122.1338414</v>
       </c>
+      <c r="H91" s="2" t="n">
+        <v>873</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3210,6 +3335,7 @@
       <c r="G92" t="n">
         <v>-113.4791609</v>
       </c>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3241,6 +3367,7 @@
       <c r="G93" t="n">
         <v>-113.4791609</v>
       </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3272,6 +3399,7 @@
       <c r="G94" t="n">
         <v>-83.61140829999999</v>
       </c>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3303,6 +3431,7 @@
       <c r="G95" t="n">
         <v>-81.45253575</v>
       </c>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3334,6 +3463,7 @@
       <c r="G96" t="n">
         <v>-107.3303371</v>
       </c>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3365,6 +3495,9 @@
       <c r="G97" t="n">
         <v>-81.57116722000001</v>
       </c>
+      <c r="H97" s="2" t="n">
+        <v>36810</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3396,6 +3529,7 @@
       <c r="G98" t="n">
         <v>-118.5615781</v>
       </c>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3427,6 +3561,7 @@
       <c r="G99" t="n">
         <v>-84.10442045000001</v>
       </c>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3458,6 +3593,7 @@
       <c r="G100" t="n">
         <v>-82.64335416</v>
       </c>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3489,6 +3625,9 @@
       <c r="G101" t="n">
         <v>-117.134395</v>
       </c>
+      <c r="H101" s="2" t="n">
+        <v>34638</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3516,6 +3655,7 @@
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3547,6 +3687,7 @@
       <c r="G103" t="n">
         <v>-74.94751173</v>
       </c>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3578,6 +3719,9 @@
       <c r="G104" t="n">
         <v>-151.0526568</v>
       </c>
+      <c r="H104" s="2" t="n">
+        <v>6267</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3609,6 +3753,9 @@
       <c r="G105" t="n">
         <v>-151.0526568</v>
       </c>
+      <c r="H105" s="2" t="n">
+        <v>6267</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3640,6 +3787,7 @@
       <c r="G106" t="n">
         <v>-119.0873903</v>
       </c>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3671,6 +3819,7 @@
       <c r="G107" t="n">
         <v>-104.7156341</v>
       </c>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3702,6 +3851,7 @@
       <c r="G108" t="n">
         <v>-108.9333714</v>
       </c>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3733,6 +3883,9 @@
       <c r="G109" t="n">
         <v>-82.87176297000001</v>
       </c>
+      <c r="H109" s="2" t="n">
+        <v>33903</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3764,6 +3917,7 @@
       <c r="G110" t="n">
         <v>-122.6877213</v>
       </c>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3795,6 +3949,7 @@
       <c r="G111" t="n">
         <v>-75.15000620000001</v>
       </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3826,6 +3981,7 @@
       <c r="G112" t="n">
         <v>-91.19687517</v>
       </c>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3857,6 +4013,7 @@
       <c r="G113" t="n">
         <v>-77.26508101</v>
       </c>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3888,6 +4045,7 @@
       <c r="G114" t="n">
         <v>-107.9950948</v>
       </c>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3919,6 +4077,7 @@
       <c r="G115" t="n">
         <v>-108.3463984</v>
       </c>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3950,6 +4109,7 @@
       <c r="G116" t="n">
         <v>-73.89894026</v>
       </c>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3981,6 +4141,7 @@
       <c r="G117" t="n">
         <v>-122.0271566</v>
       </c>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4012,6 +4173,9 @@
       <c r="G118" t="n">
         <v>-80.88200301000001</v>
       </c>
+      <c r="H118" s="2" t="n">
+        <v>12569</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4043,6 +4207,7 @@
       <c r="G119" t="n">
         <v>-74.01025636</v>
       </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4074,6 +4239,7 @@
       <c r="G120" t="n">
         <v>-73.00013462</v>
       </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4105,6 +4271,7 @@
       <c r="G121" t="n">
         <v>-81.37579869</v>
       </c>
+      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4136,6 +4303,7 @@
       <c r="G122" t="n">
         <v>-75.56353942</v>
       </c>
+      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4167,6 +4335,7 @@
       <c r="G123" t="n">
         <v>-78.89456905</v>
       </c>
+      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4198,6 +4367,7 @@
       <c r="G124" t="n">
         <v>-105.2803396</v>
       </c>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4229,6 +4399,7 @@
       <c r="G125" t="n">
         <v>-77.02577943999999</v>
       </c>
+      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4260,6 +4431,7 @@
       <c r="G126" t="n">
         <v>-109.451132</v>
       </c>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4291,6 +4463,7 @@
       <c r="G127" t="n">
         <v>-110.2561574</v>
       </c>
+      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4322,6 +4495,7 @@
       <c r="G128" t="n">
         <v>-103.8961904</v>
       </c>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4353,6 +4527,7 @@
       <c r="G129" t="n">
         <v>-87.92445695000001</v>
       </c>
+      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4384,6 +4559,7 @@
       <c r="G130" t="n">
         <v>-81.39452014</v>
       </c>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4415,6 +4591,7 @@
       <c r="G131" t="n">
         <v>-104.5459112</v>
       </c>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4446,6 +4623,7 @@
       <c r="G132" t="n">
         <v>-99.21836664</v>
       </c>
+      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4477,6 +4655,7 @@
       <c r="G133" t="n">
         <v>-81.23567534999999</v>
       </c>
+      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4508,6 +4687,7 @@
       <c r="G134" t="n">
         <v>-76.58044165</v>
       </c>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4539,6 +4719,7 @@
       <c r="G135" t="n">
         <v>-76.30103195</v>
       </c>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4570,6 +4751,7 @@
       <c r="G136" t="n">
         <v>-79.59033343999999</v>
       </c>
+      <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4601,6 +4783,7 @@
       <c r="G137" t="n">
         <v>-122.473747</v>
       </c>
+      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4632,6 +4815,7 @@
       <c r="G138" t="n">
         <v>-80.93361681</v>
       </c>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4663,6 +4847,7 @@
       <c r="G139" t="n">
         <v>-75.71496865</v>
       </c>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4694,6 +4879,7 @@
       <c r="G140" t="n">
         <v>-94.70429174</v>
       </c>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4725,6 +4911,7 @@
       <c r="G141" t="n">
         <v>-94.43129079000001</v>
       </c>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4756,6 +4943,7 @@
       <c r="G142" t="n">
         <v>-75.45557626</v>
       </c>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4787,6 +4975,7 @@
       <c r="G143" t="n">
         <v>-79.87068744</v>
       </c>
+      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4818,6 +5007,7 @@
       <c r="G144" t="n">
         <v>-105.0145185</v>
       </c>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4849,6 +5039,7 @@
       <c r="G145" t="n">
         <v>-104.0375238</v>
       </c>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4880,6 +5071,7 @@
       <c r="G146" t="n">
         <v>-122.6617043</v>
       </c>
+      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4911,6 +5103,7 @@
       <c r="G147" t="n">
         <v>-77.02174195000001</v>
       </c>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4942,6 +5135,7 @@
       <c r="G148" t="n">
         <v>-110.7624754</v>
       </c>
+      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4973,6 +5167,7 @@
       <c r="G149" t="n">
         <v>-77.04311542000001</v>
       </c>
+      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5004,6 +5199,7 @@
       <c r="G150" t="n">
         <v>-76.98508147</v>
       </c>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5035,6 +5231,7 @@
       <c r="G151" t="n">
         <v>-71.13202567</v>
       </c>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5066,6 +5263,7 @@
       <c r="G152" t="n">
         <v>-77.64704279999999</v>
       </c>
+      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5097,6 +5295,7 @@
       <c r="G153" t="n">
         <v>-85.90643310546879</v>
       </c>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5128,6 +5327,7 @@
       <c r="G154" t="n">
         <v>-79.92504169</v>
       </c>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5159,6 +5359,9 @@
       <c r="G155" t="n">
         <v>-153.2917758</v>
       </c>
+      <c r="H155" s="2" t="n">
+        <v>29557</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5190,6 +5393,9 @@
       <c r="G156" t="n">
         <v>-153.2917758</v>
       </c>
+      <c r="H156" s="2" t="n">
+        <v>29557</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5221,6 +5427,9 @@
       <c r="G157" t="n">
         <v>-90.18039557</v>
       </c>
+      <c r="H157" s="2" t="n">
+        <v>43153</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5252,6 +5461,7 @@
       <c r="G158" t="n">
         <v>-73.9171087</v>
       </c>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5283,6 +5493,7 @@
       <c r="G159" t="n">
         <v>-81.00420836000001</v>
       </c>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5314,6 +5525,7 @@
       <c r="G160" t="n">
         <v>-73.96331542</v>
       </c>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5345,6 +5557,7 @@
       <c r="G161" t="n">
         <v>-87.53545212</v>
       </c>
+      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5376,6 +5589,7 @@
       <c r="G162" t="n">
         <v>-76.92079458000001</v>
       </c>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5407,6 +5621,7 @@
       <c r="G163" t="n">
         <v>-94.35522736999999</v>
       </c>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5438,6 +5653,7 @@
       <c r="G164" t="n">
         <v>-77.08528147</v>
       </c>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5469,6 +5685,7 @@
       <c r="G165" t="n">
         <v>-77.23246758000001</v>
       </c>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5500,6 +5717,7 @@
       <c r="G166" t="n">
         <v>-108.2706711</v>
       </c>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5531,6 +5749,9 @@
       <c r="G167" t="n">
         <v>-136.8407579</v>
       </c>
+      <c r="H167" s="2" t="n">
+        <v>29557</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5562,6 +5783,9 @@
       <c r="G168" t="n">
         <v>-136.8407579</v>
       </c>
+      <c r="H168" s="2" t="n">
+        <v>29557</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5593,6 +5817,9 @@
       <c r="G169" t="n">
         <v>-113.8009306</v>
       </c>
+      <c r="H169" s="2" t="n">
+        <v>3784</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5624,6 +5851,7 @@
       <c r="G170" t="n">
         <v>-110.7718311</v>
       </c>
+      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5655,6 +5883,7 @@
       <c r="G171" t="n">
         <v>-122.6007386</v>
       </c>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5686,6 +5915,7 @@
       <c r="G172" t="n">
         <v>-112.5242653</v>
       </c>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5717,6 +5947,7 @@
       <c r="G173" t="n">
         <v>-74.01670765</v>
       </c>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5748,6 +5979,9 @@
       <c r="G174" t="n">
         <v>-112.6836024</v>
       </c>
+      <c r="H174" s="2" t="n">
+        <v>6997</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5779,6 +6013,7 @@
       <c r="G175" t="n">
         <v>-89.75573031</v>
       </c>
+      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5810,6 +6045,9 @@
       <c r="G176" t="n">
         <v>-110.7054666</v>
       </c>
+      <c r="H176" s="2" t="n">
+        <v>10650</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5841,6 +6079,7 @@
       <c r="G177" t="n">
         <v>-112.7467024</v>
       </c>
+      <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5872,6 +6111,9 @@
       <c r="G178" t="n">
         <v>-114.2579782</v>
       </c>
+      <c r="H178" s="2" t="n">
+        <v>31712</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5903,6 +6145,7 @@
       <c r="G179" t="n">
         <v>-74.64969521</v>
       </c>
+      <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5934,6 +6177,9 @@
       <c r="G180" t="n">
         <v>-105.5919572</v>
       </c>
+      <c r="H180" s="2" t="n">
+        <v>38243</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5965,6 +6211,9 @@
       <c r="G181" t="n">
         <v>-105.5919572</v>
       </c>
+      <c r="H181" s="2" t="n">
+        <v>38243</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5996,6 +6245,9 @@
       <c r="G182" t="n">
         <v>-83.50818326</v>
       </c>
+      <c r="H182" s="2" t="n">
+        <v>12585</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6027,6 +6279,7 @@
       <c r="G183" t="n">
         <v>-76.89722132999999</v>
       </c>
+      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6058,6 +6311,9 @@
       <c r="G184" t="n">
         <v>-104.885527</v>
       </c>
+      <c r="H184" s="2" t="n">
+        <v>24395</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6089,6 +6345,7 @@
       <c r="G185" t="n">
         <v>-79.84245609999999</v>
       </c>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6120,6 +6377,7 @@
       <c r="G186" t="n">
         <v>-87.75064297</v>
       </c>
+      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6151,6 +6409,7 @@
       <c r="G187" t="n">
         <v>-114.9443074</v>
       </c>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6182,6 +6441,9 @@
       <c r="G188" t="n">
         <v>-156.1591775</v>
       </c>
+      <c r="H188" s="2" t="n">
+        <v>6058</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6213,6 +6475,7 @@
       <c r="G189" t="n">
         <v>-73.94878487</v>
       </c>
+      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6244,6 +6507,7 @@
       <c r="G190" t="n">
         <v>-76.58781182</v>
       </c>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6275,6 +6539,7 @@
       <c r="G191" t="n">
         <v>-77.74088546</v>
       </c>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6306,6 +6571,7 @@
       <c r="G192" t="n">
         <v>-76.56467154622079</v>
       </c>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6337,6 +6603,7 @@
       <c r="G193" t="n">
         <v>-76.1373451375579</v>
       </c>
+      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6368,6 +6635,7 @@
       <c r="G194" t="n">
         <v>-94.5162488</v>
       </c>
+      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6399,6 +6667,9 @@
       <c r="G195" t="n">
         <v>-155.4700257</v>
       </c>
+      <c r="H195" s="2" t="n">
+        <v>6058</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6430,6 +6701,7 @@
       <c r="G196" t="n">
         <v>-91.35232139</v>
       </c>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6461,6 +6733,7 @@
       <c r="G197" t="n">
         <v>-111.9192737</v>
       </c>
+      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6492,6 +6765,7 @@
       <c r="G198" t="n">
         <v>-73.92516857</v>
       </c>
+      <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6523,6 +6797,7 @@
       <c r="G199" t="n">
         <v>-96.83387781</v>
       </c>
+      <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6554,6 +6829,7 @@
       <c r="G200" t="n">
         <v>-158.0574991</v>
       </c>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -6585,6 +6861,7 @@
       <c r="G201" t="n">
         <v>-83.08049456000001</v>
       </c>
+      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -6616,6 +6893,7 @@
       <c r="G202" t="n">
         <v>-75.76766354999999</v>
       </c>
+      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6647,6 +6925,7 @@
       <c r="G203" t="n">
         <v>-85.73413589</v>
       </c>
+      <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6678,6 +6957,9 @@
       <c r="G204" t="n">
         <v>-93.06332936</v>
       </c>
+      <c r="H204" s="2" t="n">
+        <v>7734</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6709,6 +6991,7 @@
       <c r="G205" t="n">
         <v>-109.0047977</v>
       </c>
+      <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6740,6 +7023,7 @@
       <c r="G206" t="n">
         <v>-109.5599515</v>
       </c>
+      <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6771,6 +7055,7 @@
       <c r="G207" t="n">
         <v>-75.14794157</v>
       </c>
+      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6802,6 +7087,9 @@
       <c r="G208" t="n">
         <v>-87.09647445</v>
       </c>
+      <c r="H208" s="2" t="n">
+        <v>43511</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6833,6 +7121,9 @@
       <c r="G209" t="n">
         <v>-88.82780657000001</v>
       </c>
+      <c r="H209" s="2" t="n">
+        <v>14704</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6864,6 +7155,7 @@
       <c r="G210" t="n">
         <v>-81.35086557</v>
       </c>
+      <c r="H210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6895,6 +7187,7 @@
       <c r="G211" t="n">
         <v>-90.1402241</v>
       </c>
+      <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6926,6 +7219,7 @@
       <c r="G212" t="n">
         <v>-103.829994</v>
       </c>
+      <c r="H212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6957,6 +7251,7 @@
       <c r="G213" t="n">
         <v>-84.41606652999999</v>
       </c>
+      <c r="H213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6988,6 +7283,7 @@
       <c r="G214" t="n">
         <v>-72.53424638</v>
       </c>
+      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7019,6 +7315,7 @@
       <c r="G215" t="n">
         <v>-119.8811491</v>
       </c>
+      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7050,6 +7347,7 @@
       <c r="G216" t="n">
         <v>-71.12323846</v>
       </c>
+      <c r="H216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7081,6 +7379,7 @@
       <c r="G217" t="n">
         <v>-122.1326097</v>
       </c>
+      <c r="H217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7112,6 +7411,7 @@
       <c r="G218" t="n">
         <v>-78.77448601</v>
       </c>
+      <c r="H218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7143,6 +7443,9 @@
       <c r="G219" t="n">
         <v>-115.8398125</v>
       </c>
+      <c r="H219" s="2" t="n">
+        <v>34638</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7174,6 +7477,7 @@
       <c r="G220" t="n">
         <v>-156.9511609</v>
       </c>
+      <c r="H220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7205,6 +7509,7 @@
       <c r="G221" t="n">
         <v>-156.0306932</v>
       </c>
+      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7236,6 +7541,7 @@
       <c r="G222" t="n">
         <v>-68.712287902832</v>
       </c>
+      <c r="H222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7267,6 +7573,9 @@
       <c r="G223" t="n">
         <v>-155.0126574</v>
       </c>
+      <c r="H223" s="2" t="n">
+        <v>29557</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7298,6 +7607,9 @@
       <c r="G224" t="n">
         <v>-155.0126574</v>
       </c>
+      <c r="H224" s="2" t="n">
+        <v>29557</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7329,6 +7641,9 @@
       <c r="G225" t="n">
         <v>-150.106502</v>
       </c>
+      <c r="H225" s="2" t="n">
+        <v>29557</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7360,6 +7675,7 @@
       <c r="G226" t="n">
         <v>-84.59214186</v>
       </c>
+      <c r="H226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7391,6 +7707,7 @@
       <c r="G227" t="n">
         <v>-88.52275344</v>
       </c>
+      <c r="H227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7422,6 +7739,9 @@
       <c r="G228" t="n">
         <v>-118.587429</v>
       </c>
+      <c r="H228" s="2" t="n">
+        <v>14674</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7429,29 +7749,32 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Kings Mountain National Military Park</t>
+          <t>Kings Canyon National Park</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>kimo</t>
+          <t>seki</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>National Military Parks</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>35.13900723</v>
+        <v>36.71277299</v>
       </c>
       <c r="G229" t="n">
-        <v>-81.38978711999999</v>
+        <v>-118.587429</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>-3384</v>
       </c>
     </row>
     <row r="230">
@@ -7460,30 +7783,31 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Klondike Gold Rush National Historical Park</t>
+          <t>Kings Mountain National Military Park</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>klgo</t>
+          <t>kimo</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Military Parks</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>59.61042373</v>
+        <v>35.13900723</v>
       </c>
       <c r="G230" t="n">
-        <v>-135.2618535</v>
-      </c>
+        <v>-81.38978711999999</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -7491,30 +7815,31 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Knife River Indian Villages National Historic Site</t>
+          <t>Klondike Gold Rush National Historical Park</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>knri</t>
+          <t>klgo</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ND</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>47.3540219</v>
+        <v>59.61042373</v>
       </c>
       <c r="G231" t="n">
-        <v>-101.3860533</v>
-      </c>
+        <v>-135.2618535</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -7522,30 +7847,31 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Kobuk Valley National Park</t>
+          <t>Knife River Indian Villages National Historic Site</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>kova</t>
+          <t>knri</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>67.35631336</v>
+        <v>47.3540219</v>
       </c>
       <c r="G232" t="n">
-        <v>-159.2002293</v>
-      </c>
+        <v>-101.3860533</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -7553,29 +7879,32 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Korean War Veterans Memorial</t>
+          <t>Kobuk Valley National Park</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>kowa</t>
+          <t>kova</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>38.88784226</v>
+        <v>67.35631336</v>
       </c>
       <c r="G233" t="n">
-        <v>-77.04773857000001</v>
+        <v>-159.2002293</v>
+      </c>
+      <c r="H233" s="2" t="n">
+        <v>29557</v>
       </c>
     </row>
     <row r="234">
@@ -7584,30 +7913,31 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Lake Chelan National Recreation Area</t>
+          <t>Korean War Veterans Memorial</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>kowa</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>National Recreation Areas</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>AZ,NV</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>35.96622528</v>
+        <v>38.88784226</v>
       </c>
       <c r="G234" t="n">
-        <v>-114.3469067</v>
-      </c>
+        <v>-77.04773857000001</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7615,30 +7945,31 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lake Clark National Park</t>
+          <t>Lake Chelan National Recreation Area</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>lacl</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Recreation Areas</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>AZ,NV</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>60.57405857</v>
+        <v>35.96622528</v>
       </c>
       <c r="G235" t="n">
-        <v>-153.55535</v>
-      </c>
+        <v>-114.3469067</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7646,7 +7977,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Lake Clark National Preserve</t>
+          <t>Lake Clark National Park</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7656,7 +7987,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7669,6 +8000,9 @@
       </c>
       <c r="G236" t="n">
         <v>-153.55535</v>
+      </c>
+      <c r="H236" s="2" t="n">
+        <v>29557</v>
       </c>
     </row>
     <row r="237">
@@ -7677,29 +8011,32 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lake Mead National Recreation Area</t>
+          <t>Lake Clark National Preserve</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>lacl</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>National Recreation Areas</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>AZ,NV</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>35.96622528</v>
+        <v>60.57405857</v>
       </c>
       <c r="G237" t="n">
-        <v>-114.3469067</v>
+        <v>-153.55535</v>
+      </c>
+      <c r="H237" s="2" t="n">
+        <v>29557</v>
       </c>
     </row>
     <row r="238">
@@ -7708,12 +8045,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Lake Meredith National Recreation Area</t>
+          <t>Lake Mead National Recreation Area</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>lamr</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7723,15 +8060,16 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>AZ,NV</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>35.61926203</v>
+        <v>35.96622528</v>
       </c>
       <c r="G238" t="n">
-        <v>-101.6820066</v>
-      </c>
+        <v>-114.3469067</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7739,12 +8077,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Lake Roosevelt National Recreation Area</t>
+          <t>Lake Meredith National Recreation Area</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>laro</t>
+          <t>lamr</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7754,15 +8092,16 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>48.17148735</v>
+        <v>35.61926203</v>
       </c>
       <c r="G239" t="n">
-        <v>-118.3513713</v>
-      </c>
+        <v>-101.6820066</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7770,30 +8109,31 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Lassen Volcanic National Park</t>
+          <t>Lake Roosevelt National Recreation Area</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>lavo</t>
+          <t>laro</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Recreation Areas</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>40.49354575</v>
+        <v>48.17148735</v>
       </c>
       <c r="G240" t="n">
-        <v>-121.4075993</v>
-      </c>
+        <v>-118.3513713</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7801,17 +8141,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Lava Beds National Monument</t>
+          <t>Lassen Volcanic National Park</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>labe</t>
+          <t>lavo</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -7820,10 +8160,13 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>41.75915823</v>
+        <v>40.49354575</v>
       </c>
       <c r="G241" t="n">
-        <v>-121.5172189</v>
+        <v>-121.4075993</v>
+      </c>
+      <c r="H241" s="2" t="n">
+        <v>6066</v>
       </c>
     </row>
     <row r="242">
@@ -7832,30 +8175,31 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Lewis and Clark National Historical Park</t>
+          <t>Lava Beds National Monument</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>lewi</t>
+          <t>labe</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>OR,WA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>46.21178735</v>
+        <v>41.75915823</v>
       </c>
       <c r="G242" t="n">
-        <v>-123.9638583</v>
-      </c>
+        <v>-121.5172189</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7863,30 +8207,31 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Lincoln Boyhood Home National Memorial</t>
+          <t>Lewis and Clark National Historical Park</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>libo</t>
+          <t>lewi</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OR,WA</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>38.11817004</v>
+        <v>46.21178735</v>
       </c>
       <c r="G243" t="n">
-        <v>-86.99656861</v>
-      </c>
+        <v>-123.9638583</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7894,30 +8239,31 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Lincoln Home National Historic Site</t>
+          <t>Lincoln Boyhood Home National Memorial</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>liho</t>
+          <t>libo</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>39.79715642</v>
+        <v>38.11817004</v>
       </c>
       <c r="G244" t="n">
-        <v>-89.64513397</v>
-      </c>
+        <v>-86.99656861</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7925,30 +8271,31 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Lincoln Memorial</t>
+          <t>Lincoln Home National Historic Site</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>linc</t>
+          <t>liho</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>38.88927229</v>
+        <v>39.79715642</v>
       </c>
       <c r="G245" t="n">
-        <v>-77.05017778</v>
-      </c>
+        <v>-89.64513397</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -7956,30 +8303,31 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Little Bighorn Battlefield National Monument</t>
+          <t>Lincoln Memorial</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>libi</t>
+          <t>linc</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>45.55633048</v>
+        <v>38.88927229</v>
       </c>
       <c r="G246" t="n">
-        <v>-107.4183614</v>
-      </c>
+        <v>-77.05017778</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -7987,30 +8335,31 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Little River Canyon National Preserve</t>
+          <t>Little Bighorn Battlefield National Monument</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>liri</t>
+          <t>libi</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>34.41461863</v>
+        <v>45.55633048</v>
       </c>
       <c r="G247" t="n">
-        <v>-85.61734327000001</v>
-      </c>
+        <v>-107.4183614</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8018,30 +8367,31 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Little Rock Central High School National Historic Site</t>
+          <t>Little River Canyon National Preserve</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>chsc</t>
+          <t>liri</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>34.7369465</v>
+        <v>34.41461863</v>
       </c>
       <c r="G248" t="n">
-        <v>-92.29987899</v>
-      </c>
+        <v>-85.61734327000001</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8049,12 +8399,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Longfellow House - Washington's Headquarters National Historic Site</t>
+          <t>Little Rock Central High School National Historic Site</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>chsc</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8064,15 +8414,16 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>42.37698854</v>
+        <v>34.7369465</v>
       </c>
       <c r="G249" t="n">
-        <v>-71.12636956</v>
-      </c>
+        <v>-92.29987899</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8080,17 +8431,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Lowell National Historical Park</t>
+          <t>Longfellow House - Washington's Headquarters National Historic Site</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>lowe</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8099,11 +8450,12 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>42.64553710000001</v>
+        <v>42.37698854</v>
       </c>
       <c r="G250" t="n">
-        <v>-71.31588673</v>
-      </c>
+        <v>-71.12636956</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8111,12 +8463,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Lyndon B. Johnson National Historical Park</t>
+          <t>Lowell National Historical Park</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>lyjo</t>
+          <t>lowe</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8126,15 +8478,16 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>30.2519655</v>
+        <v>42.64553710000001</v>
       </c>
       <c r="G251" t="n">
-        <v>-98.60692433</v>
-      </c>
+        <v>-71.31588673</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8142,30 +8495,31 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Lyndon Baines Johnson Memorial Grove on the Potomac</t>
+          <t>Lyndon B. Johnson National Historical Park</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>lyba</t>
+          <t>lyjo</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>38.87858036</v>
+        <v>30.2519655</v>
       </c>
       <c r="G252" t="n">
-        <v>-77.05145831999999</v>
-      </c>
+        <v>-98.60692433</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8173,30 +8527,31 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Maggie L. Walker National Historic Site</t>
+          <t>Lyndon Baines Johnson Memorial Grove on the Potomac</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>mawa</t>
+          <t>lyba</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>37.54781499</v>
+        <v>38.87858036</v>
       </c>
       <c r="G253" t="n">
-        <v>-77.43746978999999</v>
-      </c>
+        <v>-77.05145831999999</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8204,30 +8559,31 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Mammoth Cave National Park</t>
+          <t>Maggie L. Walker National Historic Site</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>maca</t>
+          <t>mawa</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>37.19760458</v>
+        <v>37.54781499</v>
       </c>
       <c r="G254" t="n">
-        <v>-86.13090198</v>
-      </c>
+        <v>-77.43746978999999</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8235,29 +8591,32 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Manassas National Battlefield Park</t>
+          <t>Mammoth Cave National Park</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>mana</t>
+          <t>maca</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>National Battlefield Parks</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>38.81710063</v>
+        <v>37.19760458</v>
       </c>
       <c r="G255" t="n">
-        <v>-77.5353468</v>
+        <v>-86.13090198</v>
+      </c>
+      <c r="H255" s="2" t="n">
+        <v>15158</v>
       </c>
     </row>
     <row r="256">
@@ -8266,30 +8625,31 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Manhattan Project National Historical Park</t>
+          <t>Manassas National Battlefield Park</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>mapr</t>
+          <t>mana</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Battlefield Parks</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>NM,WA,TN</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>39.76948167</v>
+        <v>38.81710063</v>
       </c>
       <c r="G256" t="n">
-        <v>-100.8429548</v>
-      </c>
+        <v>-77.5353468</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8297,30 +8657,31 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Manzanar National Historic Site</t>
+          <t>Manhattan Project National Historical Park</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>manz</t>
+          <t>mapr</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NM,WA,TN</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>36.72559195</v>
+        <v>39.76948167</v>
       </c>
       <c r="G257" t="n">
-        <v>-118.1547177</v>
-      </c>
+        <v>-100.8429548</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8328,30 +8689,31 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Marsh-Billings-Rockefeller National Historical Park</t>
+          <t>Manzanar National Historic Site</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>mabi</t>
+          <t>manz</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>43.63348732</v>
+        <v>36.72559195</v>
       </c>
       <c r="G258" t="n">
-        <v>-72.53424638</v>
-      </c>
+        <v>-118.1547177</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8359,12 +8721,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Martin Luther King</t>
+          <t>Marsh-Billings-Rockefeller National Historical Park</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>malu</t>
+          <t>mabi</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8374,15 +8736,16 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>VT</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>33.75618241</v>
+        <v>43.63348732</v>
       </c>
       <c r="G259" t="n">
-        <v>-84.37256768</v>
-      </c>
+        <v>-72.53424638</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8390,30 +8753,31 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Martin Luther King Jr. Memorial</t>
+          <t>Martin Luther King</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>mlkm</t>
+          <t>malu</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>38.8862276865</v>
+        <v>33.75618241</v>
       </c>
       <c r="G260" t="n">
-        <v>-77.0442195534</v>
-      </c>
+        <v>-84.37256768</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8421,30 +8785,31 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Martin Van Buren National Historic Site</t>
+          <t>Martin Luther King Jr. Memorial</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>mava</t>
+          <t>mlkm</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>42.36819596</v>
+        <v>38.8862276865</v>
       </c>
       <c r="G261" t="n">
-        <v>-73.70834257</v>
-      </c>
+        <v>-77.0442195534</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -8452,12 +8817,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Mary McLeod Bethune Council House National Historic Site</t>
+          <t>Martin Van Buren National Historic Site</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>mamc</t>
+          <t>mava</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -8467,15 +8832,16 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>38.90819107</v>
+        <v>42.36819596</v>
       </c>
       <c r="G262" t="n">
-        <v>-77.03096742</v>
-      </c>
+        <v>-73.70834257</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -8483,30 +8849,31 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Mesa Verde National Park</t>
+          <t>Mary McLeod Bethune Council House National Historic Site</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>meve</t>
+          <t>mamc</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>37.23908345</v>
+        <v>38.90819107</v>
       </c>
       <c r="G263" t="n">
-        <v>-108.4624032</v>
-      </c>
+        <v>-77.03096742</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -8514,29 +8881,32 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Minidoka National Historic Site</t>
+          <t>Mesa Verde National Park</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>miin</t>
+          <t>meve</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>ID,WA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>42.80586068</v>
+        <v>37.23908345</v>
       </c>
       <c r="G264" t="n">
-        <v>-114.4449868</v>
+        <v>-108.4624032</v>
+      </c>
+      <c r="H264" s="2" t="n">
+        <v>2372</v>
       </c>
     </row>
     <row r="265">
@@ -8545,30 +8915,31 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Minute Man National Historical Park</t>
+          <t>Minidoka National Historic Site</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>mima</t>
+          <t>miin</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>ID,WA</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>42.4562778</v>
+        <v>42.80586068</v>
       </c>
       <c r="G265" t="n">
-        <v>-71.30738884</v>
-      </c>
+        <v>-114.4449868</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -8576,30 +8947,31 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Minuteman Missile National Historic Site</t>
+          <t>Minute Man National Historical Park</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>mimi</t>
+          <t>mima</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>43.89558013</v>
+        <v>42.4562778</v>
       </c>
       <c r="G266" t="n">
-        <v>-102.0272131</v>
-      </c>
+        <v>-71.30738884</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -8607,30 +8979,31 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Mississippi National River and Recreation Areas</t>
+          <t>Minuteman Missile National Historic Site</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>miss</t>
+          <t>mimi</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>National Rivers</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>44.87447858</v>
+        <v>43.89558013</v>
       </c>
       <c r="G267" t="n">
-        <v>-93.04689808000001</v>
-      </c>
+        <v>-102.0272131</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -8638,30 +9011,31 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Missouri National Recreational River</t>
+          <t>Mississippi National River and Recreation Areas</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>mnrr</t>
+          <t>miss</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>National Wild and Scenic Rivers and Riverways</t>
+          <t>National Rivers</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>SD,NE</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>42.7882189</v>
+        <v>44.87447858</v>
       </c>
       <c r="G268" t="n">
-        <v>-97.59077822</v>
-      </c>
+        <v>-93.04689808000001</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -8669,30 +9043,31 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Mojave National Preserve</t>
+          <t>Missouri National Recreational River</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>moja</t>
+          <t>mnrr</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Wild and Scenic Rivers and Riverways</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SD,NE</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>35.12485941</v>
+        <v>42.7882189</v>
       </c>
       <c r="G269" t="n">
-        <v>-115.5168258</v>
-      </c>
+        <v>-97.59077822</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -8700,30 +9075,31 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Monocacy National Battlefield</t>
+          <t>Mojave National Preserve</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>mono</t>
+          <t>moja</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>National Battlefields</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>39.36084236</v>
+        <v>35.12485941</v>
       </c>
       <c r="G270" t="n">
-        <v>-77.39637677</v>
-      </c>
+        <v>-115.5168258</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -8731,30 +9107,31 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Montezuma Castle National Monument</t>
+          <t>Monocacy National Battlefield</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>moca</t>
+          <t>mono</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Battlefields</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>34.62237771</v>
+        <v>39.36084236</v>
       </c>
       <c r="G271" t="n">
-        <v>-111.8147857</v>
-      </c>
+        <v>-77.39637677</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -8762,30 +9139,31 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Moores Creek National Battlefield</t>
+          <t>Montezuma Castle National Monument</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>mocr</t>
+          <t>moca</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>National Battlefields</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>34.45820776</v>
+        <v>34.62237771</v>
       </c>
       <c r="G272" t="n">
-        <v>-78.11031134</v>
-      </c>
+        <v>-111.8147857</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -8793,30 +9171,31 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Morristown National Historical Park</t>
+          <t>Moores Creek National Battlefield</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>morr</t>
+          <t>mocr</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Battlefields</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>40.7650755</v>
+        <v>34.45820776</v>
       </c>
       <c r="G273" t="n">
-        <v>-74.53455122</v>
-      </c>
+        <v>-78.11031134</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -8824,30 +9203,31 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Mount Rainier National Park</t>
+          <t>Morristown National Historical Park</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>mora</t>
+          <t>morr</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>46.86075416</v>
+        <v>40.7650755</v>
       </c>
       <c r="G274" t="n">
-        <v>-121.7043885</v>
-      </c>
+        <v>-74.53455122</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -8855,29 +9235,32 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Mount Rushmore National Memorial</t>
+          <t>Mount Rainier National Park</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>moru</t>
+          <t>mora</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>43.88037021</v>
+        <v>46.86075416</v>
       </c>
       <c r="G275" t="n">
-        <v>-103.4525186</v>
+        <v>-121.7043885</v>
+      </c>
+      <c r="H275" s="2" t="n">
+        <v>-304</v>
       </c>
     </row>
     <row r="276">
@@ -8886,30 +9269,31 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Muir Woods National Monument</t>
+          <t>Mount Rushmore National Memorial</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>muwo</t>
+          <t>moru</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>37.89658027</v>
+        <v>43.88037021</v>
       </c>
       <c r="G276" t="n">
-        <v>-122.5808047</v>
-      </c>
+        <v>-103.4525186</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -8917,30 +9301,31 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Natchez National Historical Park</t>
+          <t>Muir Woods National Monument</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>natc</t>
+          <t>muwo</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>31.54697621</v>
+        <v>37.89658027</v>
       </c>
       <c r="G277" t="n">
-        <v>-91.39040665</v>
-      </c>
+        <v>-122.5808047</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -8948,30 +9333,31 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Natchez Trace National Scenic Trail</t>
+          <t>Natchez National Historical Park</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>natt</t>
+          <t>natc</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>National Scenic Trails</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AL,MS,TN</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>34.3302903330188</v>
+        <v>31.54697621</v>
       </c>
       <c r="G278" t="n">
-        <v>-88.71001040935521</v>
-      </c>
+        <v>-91.39040665</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -8979,17 +9365,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Natchez Trace Parkway</t>
+          <t>Natchez Trace National Scenic Trail</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>natr</t>
+          <t>natt</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>National Parkways</t>
+          <t>National Scenic Trails</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -8998,11 +9384,12 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>33.78002293</v>
+        <v>34.3302903330188</v>
       </c>
       <c r="G279" t="n">
-        <v>-89.03092439</v>
-      </c>
+        <v>-88.71001040935521</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9010,30 +9397,31 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>National Capital Parks - East</t>
+          <t>Natchez Trace Parkway</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>nace</t>
+          <t>natr</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Other Designations</t>
+          <t>National Parkways</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>AL,MS,TN</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>38.85301412</v>
+        <v>33.78002293</v>
       </c>
       <c r="G280" t="n">
-        <v>-76.98495791000001</v>
-      </c>
+        <v>-89.03092439</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9041,12 +9429,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>National Mall and Memorial Parks</t>
+          <t>National Capital Parks - East</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>nama</t>
+          <t>nace</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9060,11 +9448,12 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>38.88162683</v>
+        <v>38.85301412</v>
       </c>
       <c r="G281" t="n">
-        <v>-77.03586953</v>
-      </c>
+        <v>-76.98495791000001</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9072,30 +9461,31 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>National Park of American Samoa</t>
+          <t>National Mall and Memorial Parks</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>npsa</t>
+          <t>nama</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>Other Designations</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>-14.22865935</v>
+        <v>38.88162683</v>
       </c>
       <c r="G282" t="n">
-        <v>-169.8503777</v>
-      </c>
+        <v>-77.03586953</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9103,29 +9493,32 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Natural Bridges National Monument</t>
+          <t>National Park of American Samoa</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>nabr</t>
+          <t>npsa</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>37.6045329</v>
+        <v>-14.22865935</v>
       </c>
       <c r="G283" t="n">
-        <v>-110.0022436</v>
+        <v>-169.8503777</v>
+      </c>
+      <c r="H283" s="2" t="n">
+        <v>32447</v>
       </c>
     </row>
     <row r="284">
@@ -9134,12 +9527,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Navajo National Monument</t>
+          <t>Natural Bridges National Monument</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>nava</t>
+          <t>nabr</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9149,15 +9542,16 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>36.71755643</v>
+        <v>37.6045329</v>
       </c>
       <c r="G284" t="n">
-        <v>-110.5504015</v>
-      </c>
+        <v>-110.0022436</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9165,30 +9559,31 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>New Bedford Whaling National Historical Park</t>
+          <t>Navajo National Monument</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>nebe</t>
+          <t>nava</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>41.63540552</v>
+        <v>36.71755643</v>
       </c>
       <c r="G285" t="n">
-        <v>-70.92322321</v>
-      </c>
+        <v>-110.5504015</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9196,12 +9591,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>New Orleans Jazz National Historical Park</t>
+          <t>New Bedford Whaling National Historical Park</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>jazz</t>
+          <t>nebe</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9211,15 +9606,16 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>29.96303129</v>
+        <v>41.63540552</v>
       </c>
       <c r="G286" t="n">
-        <v>-90.06749669</v>
-      </c>
+        <v>-70.92322321</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9227,30 +9623,31 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>New River Gorge National River</t>
+          <t>New Orleans Jazz National Historical Park</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>neri</t>
+          <t>jazz</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>National Rivers</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>WV</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>37.86878554</v>
+        <v>29.96303129</v>
       </c>
       <c r="G287" t="n">
-        <v>-80.99956002</v>
-      </c>
+        <v>-90.06749669</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9258,30 +9655,31 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Nez Perce National Historical Park</t>
+          <t>New River Gorge National River</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>nepe</t>
+          <t>neri</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Rivers</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>ID,MT,OR,WA</t>
+          <t>WV</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>46.07019093</v>
+        <v>37.86878554</v>
       </c>
       <c r="G288" t="n">
-        <v>-115.8761258</v>
-      </c>
+        <v>-80.99956002</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9289,30 +9687,31 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Nicodemus National Historic Site</t>
+          <t>Nez Perce National Historical Park</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>nico</t>
+          <t>nepe</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>ID,MT,OR,WA</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>39.39167606</v>
+        <v>46.07019093</v>
       </c>
       <c r="G289" t="n">
-        <v>-99.61680328999999</v>
-      </c>
+        <v>-115.8761258</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9320,12 +9719,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ninety Six National Historic Site</t>
+          <t>Nicodemus National Historic Site</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>nisi</t>
+          <t>nico</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9335,15 +9734,16 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>34.14273587</v>
+        <v>39.39167606</v>
       </c>
       <c r="G290" t="n">
-        <v>-82.01636078999999</v>
-      </c>
+        <v>-99.61680328999999</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9351,30 +9751,31 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Niobrara National Scenic River</t>
+          <t>Ninety Six National Historic Site</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>niob</t>
+          <t>nisi</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>National Wild and Scenic Rivers and Riverways</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>42.79413083</v>
+        <v>34.14273587</v>
       </c>
       <c r="G291" t="n">
-        <v>-99.91870646</v>
-      </c>
+        <v>-82.01636078999999</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -9382,30 +9783,31 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Noatak National Preserve</t>
+          <t>Niobrara National Scenic River</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>noat</t>
+          <t>niob</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Wild and Scenic Rivers and Riverways</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>68.01027053</v>
+        <v>42.79413083</v>
       </c>
       <c r="G292" t="n">
-        <v>-159.831694</v>
-      </c>
+        <v>-99.91870646</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -9413,30 +9815,31 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>North Cascades National Park</t>
+          <t>Noatak National Preserve</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>noca</t>
+          <t>noat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>48.71171756</v>
+        <v>68.01027053</v>
       </c>
       <c r="G293" t="n">
-        <v>-121.2069423</v>
-      </c>
+        <v>-159.831694</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -9444,29 +9847,32 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Obed Wild and Scenic River</t>
+          <t>North Cascades National Park</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>obed</t>
+          <t>noca</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>National Wild and Scenic Rivers and Riverways</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>36.1056026036731</v>
+        <v>48.71171756</v>
       </c>
       <c r="G294" t="n">
-        <v>-84.5979170501232</v>
+        <v>-121.2069423</v>
+      </c>
+      <c r="H294" s="2" t="n">
+        <v>25113</v>
       </c>
     </row>
     <row r="295">
@@ -9475,30 +9881,31 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ocmulgee Mounds National Historical Park</t>
+          <t>Obed Wild and Scenic River</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>ocmu</t>
+          <t>obed</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Wild and Scenic Rivers and Riverways</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>32.83816576</v>
+        <v>36.1056026036731</v>
       </c>
       <c r="G295" t="n">
-        <v>-83.60224853</v>
-      </c>
+        <v>-84.5979170501232</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -9506,30 +9913,31 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Olympic National Park</t>
+          <t>Ocmulgee Mounds National Historical Park</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>olym</t>
+          <t>ocmu</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>47.80392754</v>
+        <v>32.83816576</v>
       </c>
       <c r="G296" t="n">
-        <v>-123.6663848</v>
-      </c>
+        <v>-83.60224853</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -9537,29 +9945,32 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Oregon Caves National Monument and Preserve</t>
+          <t>Olympic National Park</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>jela</t>
+          <t>olym</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>29.81739855</v>
+        <v>47.80392754</v>
       </c>
       <c r="G297" t="n">
-        <v>-90.1402241</v>
+        <v>-123.6663848</v>
+      </c>
+      <c r="H297" s="2" t="n">
+        <v>14060</v>
       </c>
     </row>
     <row r="298">
@@ -9568,12 +9979,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Organ Pipe Cactus National Monument</t>
+          <t>Oregon Caves National Monument and Preserve</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>orpi</t>
+          <t>jela</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9583,15 +9994,16 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>32.03585543</v>
+        <v>29.81739855</v>
       </c>
       <c r="G298" t="n">
-        <v>-112.8573314</v>
-      </c>
+        <v>-90.1402241</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -9599,30 +10011,31 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Ozark National Scenic Riverways</t>
+          <t>Organ Pipe Cactus National Monument</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>ozar</t>
+          <t>orpi</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>National Rivers</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>37.13968894</v>
+        <v>32.03585543</v>
       </c>
       <c r="G299" t="n">
-        <v>-91.25709817000001</v>
-      </c>
+        <v>-112.8573314</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -9630,30 +10043,31 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Padre Island National Seashore</t>
+          <t>Ozark National Scenic Riverways</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>pais</t>
+          <t>ozar</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>National Seashores</t>
+          <t>National Rivers</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>27.05381186</v>
+        <v>37.13968894</v>
       </c>
       <c r="G300" t="n">
-        <v>-97.35901135</v>
-      </c>
+        <v>-91.25709817000001</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -9661,17 +10075,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Palo Alto Battlefield National Historical Park</t>
+          <t>Padre Island National Seashore</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>paal</t>
+          <t>pais</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Seashores</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -9680,11 +10094,12 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>26.02387351</v>
+        <v>27.05381186</v>
       </c>
       <c r="G301" t="n">
-        <v>-97.46296072</v>
-      </c>
+        <v>-97.35901135</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -9692,12 +10107,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Paterson Great Falls National Historical Park</t>
+          <t>Palo Alto Battlefield National Historical Park</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>pagr</t>
+          <t>paal</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -9707,15 +10122,16 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>40.91584645</v>
+        <v>26.02387351</v>
       </c>
       <c r="G302" t="n">
-        <v>-74.18021494</v>
-      </c>
+        <v>-97.46296072</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -9723,30 +10139,31 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Pea Ridge National Military Park</t>
+          <t>Paterson Great Falls National Historical Park</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>peri</t>
+          <t>pagr</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>National Military Parks</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>36.45438033</v>
+        <v>40.91584645</v>
       </c>
       <c r="G303" t="n">
-        <v>-94.03468357</v>
-      </c>
+        <v>-74.18021494</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -9754,30 +10171,31 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Pearl Harbor National Memorial</t>
+          <t>Pea Ridge National Military Park</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>valr</t>
+          <t>peri</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Military Parks</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>36.74793528</v>
+        <v>36.45438033</v>
       </c>
       <c r="G304" t="n">
-        <v>-131.3662323</v>
-      </c>
+        <v>-94.03468357</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -9785,30 +10203,31 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Pecos National Historical Park</t>
+          <t>Pearl Harbor National Memorial</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>peco</t>
+          <t>valr</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>35.54192238</v>
+        <v>36.74793528</v>
       </c>
       <c r="G305" t="n">
-        <v>-105.6814684</v>
-      </c>
+        <v>-131.3662323</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -9816,30 +10235,31 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Pennsylvania Avenue National Historic Site</t>
+          <t>Pecos National Historical Park</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>paav</t>
+          <t>peco</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>38.89426856</v>
+        <v>35.54192238</v>
       </c>
       <c r="G306" t="n">
-        <v>-77.02506554</v>
-      </c>
+        <v>-105.6814684</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -9847,30 +10267,31 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Perry's Victory and International Peace Memorial</t>
+          <t>Pennsylvania Avenue National Historic Site</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>pevi</t>
+          <t>paav</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>41.65449782</v>
+        <v>38.89426856</v>
       </c>
       <c r="G307" t="n">
-        <v>-82.81157940000001</v>
-      </c>
+        <v>-77.02506554</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -9878,30 +10299,31 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Petersburg National Battlefield</t>
+          <t>Perry's Victory and International Peace Memorial</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>pete</t>
+          <t>pevi</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>National Battlefields</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>37.19109957</v>
+        <v>41.65449782</v>
       </c>
       <c r="G308" t="n">
-        <v>-77.47594865000001</v>
-      </c>
+        <v>-82.81157940000001</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -9909,30 +10331,31 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Petrified Forest National Park</t>
+          <t>Petersburg National Battlefield</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>pefo</t>
+          <t>pete</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Battlefields</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>34.98387664</v>
+        <v>37.19109957</v>
       </c>
       <c r="G309" t="n">
-        <v>-109.7877678</v>
-      </c>
+        <v>-77.47594865000001</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -9940,29 +10363,32 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Petroglyph National Monument</t>
+          <t>Petrified Forest National Park</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>petr</t>
+          <t>pefo</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>35.13915998</v>
+        <v>34.98387664</v>
       </c>
       <c r="G310" t="n">
-        <v>-106.7491456</v>
+        <v>-109.7877678</v>
+      </c>
+      <c r="H310" s="2" t="n">
+        <v>22989</v>
       </c>
     </row>
     <row r="311">
@@ -9971,30 +10397,31 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Pictured Rocks National Lakeshore</t>
+          <t>Petroglyph National Monument</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>piro</t>
+          <t>petr</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>National Lakeshores</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>46.56435642</v>
+        <v>35.13915998</v>
       </c>
       <c r="G311" t="n">
-        <v>-86.31628732999999</v>
-      </c>
+        <v>-106.7491456</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10002,30 +10429,31 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Pinnacles National Park</t>
+          <t>Pictured Rocks National Lakeshore</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>pinn</t>
+          <t>piro</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Lakeshores</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>36.49029208</v>
+        <v>46.56435642</v>
       </c>
       <c r="G312" t="n">
-        <v>-121.1813607</v>
-      </c>
+        <v>-86.31628732999999</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10033,29 +10461,32 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Pipe Spring National Monument</t>
+          <t>Pinnacles National Park</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>pisp</t>
+          <t>pinn</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>36.86282666</v>
+        <v>36.49029208</v>
       </c>
       <c r="G313" t="n">
-        <v>-112.7398567</v>
+        <v>-121.1813607</v>
+      </c>
+      <c r="H313" s="2" t="n">
+        <v>41284</v>
       </c>
     </row>
     <row r="314">
@@ -10064,12 +10495,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Pipestone National Monument</t>
+          <t>Pipe Spring National Monument</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>pipe</t>
+          <t>pisp</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10079,15 +10510,16 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>44.01351958</v>
+        <v>36.86282666</v>
       </c>
       <c r="G314" t="n">
-        <v>-96.32475522999999</v>
-      </c>
+        <v>-112.7398567</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10095,30 +10527,31 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Piscataway Park</t>
+          <t>Pipestone National Monument</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>pisc</t>
+          <t>pipe</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Other Designations</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>38.68679958</v>
+        <v>44.01351958</v>
       </c>
       <c r="G315" t="n">
-        <v>-77.06659744</v>
-      </c>
+        <v>-96.32475522999999</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10126,30 +10559,31 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Point Reyes National Seashore</t>
+          <t>Piscataway Park</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>pore</t>
+          <t>pisc</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>National Seashores</t>
+          <t>Other Designations</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>38.05511241</v>
+        <v>38.68679958</v>
       </c>
       <c r="G316" t="n">
-        <v>-122.8797804</v>
-      </c>
+        <v>-77.06659744</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10157,17 +10591,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Port Chicago Naval Magazine National Memorial</t>
+          <t>Point Reyes National Seashore</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>poch</t>
+          <t>pore</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Seashores</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10176,11 +10610,12 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>38.05685472</v>
+        <v>38.05511241</v>
       </c>
       <c r="G317" t="n">
-        <v>-122.0301603</v>
-      </c>
+        <v>-122.8797804</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10188,26 +10623,31 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Potomac Heritage National Scenic Trail</t>
+          <t>Port Chicago Naval Magazine National Memorial</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>pohe</t>
+          <t>poch</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>National Scenic Trails</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>DC,MD,PA,VA</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr"/>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="F318" t="n">
+        <v>38.05685472</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-122.0301603</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10215,30 +10655,27 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Poverty Point National Monument</t>
+          <t>Potomac Heritage National Scenic Trail</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>popo</t>
+          <t>pohe</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Scenic Trails</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>LA</t>
-        </is>
-      </c>
-      <c r="F319" t="n">
-        <v>32.6424361</v>
-      </c>
-      <c r="G319" t="n">
-        <v>-91.40829834</v>
-      </c>
+          <t>DC,MD,PA,VA</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10246,30 +10683,31 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>President William Jefferson Clinton Birthplace Home National Historic Site</t>
+          <t>Poverty Point National Monument</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>wicl</t>
+          <t>popo</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>33.66758356</v>
+        <v>32.6424361</v>
       </c>
       <c r="G320" t="n">
-        <v>-93.59641868</v>
-      </c>
+        <v>-91.40829834</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10277,30 +10715,31 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Prince William Forest Park</t>
+          <t>President William Jefferson Clinton Birthplace Home National Historic Site</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>prwi</t>
+          <t>wicl</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Other Designations</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>38.58589108</v>
+        <v>33.66758356</v>
       </c>
       <c r="G321" t="n">
-        <v>-77.38910997000001</v>
-      </c>
+        <v>-93.59641868</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -10308,30 +10747,31 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Pu'uhonua o Hōnaunau National Historical Park</t>
+          <t>Prince William Forest Park</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>puho</t>
+          <t>prwi</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>Other Designations</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>19.41268627</v>
+        <v>38.58589108</v>
       </c>
       <c r="G322" t="n">
-        <v>-155.9008789</v>
-      </c>
+        <v>-77.38910997000001</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -10339,17 +10779,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Pu'ukoholā Heiau National Historic Site</t>
+          <t>Pu'uhonua o Hōnaunau National Historical Park</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>puhe</t>
+          <t>puho</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10358,11 +10798,12 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>20.02772186</v>
+        <v>19.41268627</v>
       </c>
       <c r="G323" t="n">
-        <v>-155.8211629</v>
-      </c>
+        <v>-155.9008789</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -10370,30 +10811,31 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Pullman National Monument</t>
+          <t>Pu'ukoholā Heiau National Historic Site</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>puhe</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>HI</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>41.69429163</v>
+        <v>20.02772186</v>
       </c>
       <c r="G324" t="n">
-        <v>-87.60873823999999</v>
-      </c>
+        <v>-155.8211629</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -10401,12 +10843,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Rainbow Bridge National Monument</t>
+          <t>Pullman National Monument</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>rabr</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -10416,15 +10858,16 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>37.07788771</v>
+        <v>41.69429163</v>
       </c>
       <c r="G325" t="n">
-        <v>-110.9655099</v>
-      </c>
+        <v>-87.60873823999999</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -10432,30 +10875,31 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Reconstruction Era National Historical Park</t>
+          <t>Rainbow Bridge National Monument</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>rabr</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>32.3868598937988</v>
+        <v>37.07788771</v>
       </c>
       <c r="G326" t="n">
-        <v>-80.65110778808591</v>
-      </c>
+        <v>-110.9655099</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -10463,30 +10907,31 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Redwood National Park</t>
+          <t>Reconstruction Era National Historical Park</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>muwo</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>37.89658027</v>
+        <v>32.3868598937988</v>
       </c>
       <c r="G327" t="n">
-        <v>-122.5808047</v>
-      </c>
+        <v>-80.65110778808591</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -10494,29 +10939,32 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Richmond National Battlefield Park</t>
+          <t>Redwood National Park</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>redw</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>National Battlefield Parks</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>37.48774472</v>
+        <v>41.37237268</v>
       </c>
       <c r="G328" t="n">
-        <v>-77.29107784999999</v>
+        <v>-124.0318129</v>
+      </c>
+      <c r="H328" s="2" t="n">
+        <v>25113</v>
       </c>
     </row>
     <row r="329">
@@ -10525,30 +10973,31 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Rio Grande Wild and Scenic River</t>
+          <t>Richmond National Battlefield Park</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>rigr</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>National Wild and Scenic Rivers and Riverways</t>
+          <t>National Battlefield Parks</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>29.52743158</v>
+        <v>37.48774472</v>
       </c>
       <c r="G329" t="n">
-        <v>-102.5979169</v>
-      </c>
+        <v>-77.29107784999999</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -10556,30 +11005,31 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>River Raisin National Battlefield Park</t>
+          <t>Rio Grande Wild and Scenic River</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>rira</t>
+          <t>rigr</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>National Battlefield Parks</t>
+          <t>National Wild and Scenic Rivers and Riverways</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>41.91291085</v>
+        <v>29.52743158</v>
       </c>
       <c r="G330" t="n">
-        <v>-83.37620464</v>
-      </c>
+        <v>-102.5979169</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -10587,30 +11037,31 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Rock Creek Park</t>
+          <t>River Raisin National Battlefield Park</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>rocr</t>
+          <t>rira</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Other Designations</t>
+          <t>National Battlefield Parks</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>38.95125063</v>
+        <v>41.91291085</v>
       </c>
       <c r="G331" t="n">
-        <v>-77.05002838</v>
-      </c>
+        <v>-83.37620464</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -10618,30 +11069,31 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Rocky Mountain National Park</t>
+          <t>Rock Creek Park</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>romo</t>
+          <t>rocr</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>Other Designations</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>40.3556924</v>
+        <v>38.95125063</v>
       </c>
       <c r="G332" t="n">
-        <v>-105.6972879</v>
-      </c>
+        <v>-77.05002838</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -10649,29 +11101,32 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Roger Williams National Memorial</t>
+          <t>Rocky Mountain National Park</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>rowi</t>
+          <t>romo</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>41.8298955</v>
+        <v>40.3556924</v>
       </c>
       <c r="G333" t="n">
-        <v>-71.41056665000001</v>
+        <v>-105.6972879</v>
+      </c>
+      <c r="H333" s="2" t="n">
+        <v>5505</v>
       </c>
     </row>
     <row r="334">
@@ -10680,30 +11135,31 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Rosie the Riveter/World War II Home Front National Historical Park</t>
+          <t>Roger Williams National Memorial</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>rori</t>
+          <t>rowi</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>37.90999027</v>
+        <v>41.8298955</v>
       </c>
       <c r="G334" t="n">
-        <v>-122.360156</v>
-      </c>
+        <v>-71.41056665000001</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -10711,30 +11167,31 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ross Lake National Recreation Area</t>
+          <t>Rosie the Riveter/World War II Home Front National Historical Park</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>rori</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>National Recreation Areas</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>AZ,NV</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>35.96622528</v>
+        <v>37.90999027</v>
       </c>
       <c r="G335" t="n">
-        <v>-114.3469067</v>
-      </c>
+        <v>-122.360156</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -10742,30 +11199,31 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Russell Cave National Monument</t>
+          <t>Ross Lake National Recreation Area</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>ruca</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Recreation Areas</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AZ,NV</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>34.97402063</v>
+        <v>35.96622528</v>
       </c>
       <c r="G336" t="n">
-        <v>-85.81560313999999</v>
-      </c>
+        <v>-114.3469067</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -10773,30 +11231,31 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sagamore Hill National Historic Site</t>
+          <t>Russell Cave National Monument</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>sahi</t>
+          <t>ruca</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>40.88579128</v>
+        <v>34.97402063</v>
       </c>
       <c r="G337" t="n">
-        <v>-73.49686438000001</v>
-      </c>
+        <v>-85.81560313999999</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -10804,30 +11263,31 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Saguaro National Park</t>
+          <t>Sagamore Hill National Historic Site</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>sagu</t>
+          <t>sahi</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>32.20909636</v>
+        <v>40.88579128</v>
       </c>
       <c r="G338" t="n">
-        <v>-110.7574974</v>
-      </c>
+        <v>-73.49686438000001</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -10835,29 +11295,32 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Saint Croix Island International Historic Site</t>
+          <t>Saguaro National Park</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>sacr</t>
+          <t>sagu</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>International Historic Sites</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>45.12858838</v>
+        <v>32.20909636</v>
       </c>
       <c r="G339" t="n">
-        <v>-67.13363651</v>
+        <v>-110.7574974</v>
+      </c>
+      <c r="H339" s="2" t="n">
+        <v>34621</v>
       </c>
     </row>
     <row r="340">
@@ -10866,30 +11329,31 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Saint Croix National Scenic Riverway</t>
+          <t>Saint Croix Island International Historic Site</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>sacn</t>
+          <t>sacr</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>National Wild and Scenic Rivers and Riverways</t>
+          <t>International Historic Sites</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>WI,MN</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>45.70019235</v>
+        <v>45.12858838</v>
       </c>
       <c r="G340" t="n">
-        <v>-92.36126685000001</v>
-      </c>
+        <v>-67.13363651</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -10897,30 +11361,31 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Saint Paul's Church National Historic Site</t>
+          <t>Saint Croix National Scenic Riverway</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>sapa</t>
+          <t>sacn</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Wild and Scenic Rivers and Riverways</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>WI,MN</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>40.89283511</v>
+        <v>45.70019235</v>
       </c>
       <c r="G341" t="n">
-        <v>-73.82577276000001</v>
-      </c>
+        <v>-92.36126685000001</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -10928,30 +11393,31 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Saint-Gaudens National Historical Park</t>
+          <t>Saint Paul's Church National Historic Site</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>saga</t>
+          <t>sapa</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>NH</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>43.4997238</v>
+        <v>40.89283511</v>
       </c>
       <c r="G342" t="n">
-        <v>-72.37333968999999</v>
-      </c>
+        <v>-73.82577276000001</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -10959,30 +11425,31 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Salem Maritime National Historic Site</t>
+          <t>Saint-Gaudens National Historical Park</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>sama</t>
+          <t>saga</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>NH</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>42.52024529</v>
+        <v>43.4997238</v>
       </c>
       <c r="G343" t="n">
-        <v>-70.88640866999999</v>
-      </c>
+        <v>-72.37333968999999</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -10990,30 +11457,31 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Salinas Pueblo Missions National Monument</t>
+          <t>Salem Maritime National Historic Site</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>sapu</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>34.35423203</v>
+        <v>42.52024529</v>
       </c>
       <c r="G344" t="n">
-        <v>-106.2050309</v>
-      </c>
+        <v>-70.88640866999999</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11021,30 +11489,31 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Salt River Bay National Historical Park and Ecological Preserve</t>
+          <t>Salinas Pueblo Missions National Monument</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>sari</t>
+          <t>sapu</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>VI</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>17.77908602</v>
+        <v>34.35423203</v>
       </c>
       <c r="G345" t="n">
-        <v>-64.75519348</v>
-      </c>
+        <v>-106.2050309</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11052,12 +11521,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>San Antonio Missions National Historical Park</t>
+          <t>Salt River Bay National Historical Park and Ecological Preserve</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>saan</t>
+          <t>sari</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -11067,15 +11536,16 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>VI</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>29.31262089</v>
+        <v>17.77908602</v>
       </c>
       <c r="G346" t="n">
-        <v>-98.4289522</v>
-      </c>
+        <v>-64.75519348</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11083,12 +11553,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>San Francisco Maritime National Historical Park</t>
+          <t>San Antonio Missions National Historical Park</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>safr</t>
+          <t>saan</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -11098,15 +11568,16 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>37.81005871</v>
+        <v>29.31262089</v>
       </c>
       <c r="G347" t="n">
-        <v>-122.4244415</v>
-      </c>
+        <v>-98.4289522</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11114,12 +11585,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>San Juan Island National Historical Park</t>
+          <t>San Francisco Maritime National Historical Park</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>sajh</t>
+          <t>safr</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -11129,15 +11600,16 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>48.51241933</v>
+        <v>37.81005871</v>
       </c>
       <c r="G348" t="n">
-        <v>-123.0610277</v>
-      </c>
+        <v>-122.4244415</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11145,30 +11617,31 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>San Juan National Historic Site</t>
+          <t>San Juan Island National Historical Park</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>saju</t>
+          <t>sajh</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>18.46873857</v>
+        <v>48.51241933</v>
       </c>
       <c r="G349" t="n">
-        <v>-66.11848623</v>
-      </c>
+        <v>-123.0610277</v>
+      </c>
+      <c r="H349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -11176,12 +11649,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Sand Creek Massacre National Historic Site</t>
+          <t>San Juan National Historic Site</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>saju</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -11191,15 +11664,16 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>38.56414189</v>
+        <v>18.46873857</v>
       </c>
       <c r="G350" t="n">
-        <v>-102.5169542</v>
-      </c>
+        <v>-66.11848623</v>
+      </c>
+      <c r="H350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11207,30 +11681,31 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Santa Monica Mountains National Recreation Area</t>
+          <t>Sand Creek Massacre National Historic Site</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>samo</t>
+          <t>sand</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>National Recreation Areas</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>34.09777606</v>
+        <v>38.56414189</v>
       </c>
       <c r="G351" t="n">
-        <v>-118.7708619</v>
-      </c>
+        <v>-102.5169542</v>
+      </c>
+      <c r="H351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -11238,30 +11713,31 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Saratoga National Historical Park</t>
+          <t>Santa Monica Mountains National Recreation Area</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>sara</t>
+          <t>samo</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Recreation Areas</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>42.99522612</v>
+        <v>34.09777606</v>
       </c>
       <c r="G352" t="n">
-        <v>-73.63386108</v>
-      </c>
+        <v>-118.7708619</v>
+      </c>
+      <c r="H352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -11269,30 +11745,31 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Saugus Iron Works National Historic Site</t>
+          <t>Saratoga National Historical Park</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>sair</t>
+          <t>sara</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>42.46830664</v>
+        <v>42.99522612</v>
       </c>
       <c r="G353" t="n">
-        <v>-71.00769529999999</v>
-      </c>
+        <v>-73.63386108</v>
+      </c>
+      <c r="H353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -11300,30 +11777,31 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Scotts Bluff National Monument</t>
+          <t>Saugus Iron Works National Historic Site</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>scbl</t>
+          <t>sair</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>41.83464193</v>
+        <v>42.46830664</v>
       </c>
       <c r="G354" t="n">
-        <v>-103.7071351</v>
-      </c>
+        <v>-71.00769529999999</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -11331,30 +11809,31 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Sequoia National Park</t>
+          <t>Scotts Bluff National Monument</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>seki</t>
+          <t>scbl</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>36.71277299</v>
+        <v>41.83464193</v>
       </c>
       <c r="G355" t="n">
-        <v>-118.587429</v>
-      </c>
+        <v>-103.7071351</v>
+      </c>
+      <c r="H355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -11362,12 +11841,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Shenandoah National Park</t>
+          <t>Sequoia National Park</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>shen</t>
+          <t>seki</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -11377,14 +11856,17 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>38.49236644</v>
+        <v>36.71277299</v>
       </c>
       <c r="G356" t="n">
-        <v>-78.46907715</v>
+        <v>-118.587429</v>
+      </c>
+      <c r="H356" s="2" t="n">
+        <v>14674</v>
       </c>
     </row>
     <row r="357">
@@ -11393,29 +11875,32 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Shiloh National Military Park</t>
+          <t>Sequoia National Park</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>shil</t>
+          <t>seki</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>National Military Parks</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>TN,MS</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>35.13850907</v>
+        <v>36.71277299</v>
       </c>
       <c r="G357" t="n">
-        <v>-88.3421072</v>
+        <v>-118.587429</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>-3384</v>
       </c>
     </row>
     <row r="358">
@@ -11424,29 +11909,32 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Sitka National Historical Park</t>
+          <t>Shenandoah National Park</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>sitk</t>
+          <t>shen</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>57.04718173</v>
+        <v>38.49236644</v>
       </c>
       <c r="G358" t="n">
-        <v>-135.3156876</v>
+        <v>-78.46907715</v>
+      </c>
+      <c r="H358" s="2" t="n">
+        <v>13144</v>
       </c>
     </row>
     <row r="359">
@@ -11455,30 +11943,31 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Sleeping Bear Dunes National Lakeshore</t>
+          <t>Shiloh National Military Park</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>slbe</t>
+          <t>shil</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>National Lakeshores</t>
+          <t>National Military Parks</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>TN,MS</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>44.92844962</v>
+        <v>35.13850907</v>
       </c>
       <c r="G359" t="n">
-        <v>-86.02706591</v>
-      </c>
+        <v>-88.3421072</v>
+      </c>
+      <c r="H359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -11486,30 +11975,31 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Springfield Armory National Historic Site</t>
+          <t>Sitka National Historical Park</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>spar</t>
+          <t>sitk</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>42.1086368</v>
+        <v>57.04718173</v>
       </c>
       <c r="G360" t="n">
-        <v>-72.57967415</v>
-      </c>
+        <v>-135.3156876</v>
+      </c>
+      <c r="H360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -11517,30 +12007,31 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Statue of Liberty National Monument</t>
+          <t>Sleeping Bear Dunes National Lakeshore</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>stli</t>
+          <t>slbe</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Lakeshores</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>40.69572149</v>
+        <v>44.92844962</v>
       </c>
       <c r="G361" t="n">
-        <v>-74.04232397</v>
-      </c>
+        <v>-86.02706591</v>
+      </c>
+      <c r="H361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -11548,12 +12039,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Steamtown National Historic Site</t>
+          <t>Springfield Armory National Historic Site</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>stea</t>
+          <t>spar</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -11563,15 +12054,16 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>41.40757521</v>
+        <v>42.1086368</v>
       </c>
       <c r="G362" t="n">
-        <v>-75.67037255</v>
-      </c>
+        <v>-72.57967415</v>
+      </c>
+      <c r="H362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -11579,30 +12071,31 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Stones River National Battlefield</t>
+          <t>Statue of Liberty National Monument</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>stri</t>
+          <t>stli</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>National Battlefields</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>35.87608652</v>
+        <v>40.69572149</v>
       </c>
       <c r="G363" t="n">
-        <v>-86.43078398999999</v>
-      </c>
+        <v>-74.04232397</v>
+      </c>
+      <c r="H363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -11610,30 +12103,31 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Stonewall National Monument</t>
+          <t>Steamtown National Historic Site</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>ston</t>
+          <t>stea</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>40.7337799072266</v>
+        <v>41.40757521</v>
       </c>
       <c r="G364" t="n">
-        <v>-74.0006866455078</v>
-      </c>
+        <v>-75.67037255</v>
+      </c>
+      <c r="H364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -11641,30 +12135,31 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sunset Crater Volcano National Monument</t>
+          <t>Stones River National Battlefield</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>sucr</t>
+          <t>stri</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Battlefields</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>35.37114323</v>
+        <v>35.87608652</v>
       </c>
       <c r="G365" t="n">
-        <v>-111.510376</v>
-      </c>
+        <v>-86.43078398999999</v>
+      </c>
+      <c r="H365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -11672,30 +12167,31 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tallgrass Prairie National Preserve</t>
+          <t>Stonewall National Monument</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>tapr</t>
+          <t>ston</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>38.44023613</v>
+        <v>40.7337799072266</v>
       </c>
       <c r="G366" t="n">
-        <v>-96.5670822</v>
-      </c>
+        <v>-74.0006866455078</v>
+      </c>
+      <c r="H366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -11703,30 +12199,31 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Thaddeus Kosciuszko National Memorial</t>
+          <t>Sunset Crater Volcano National Monument</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>thko</t>
+          <t>sucr</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>39.94345312</v>
+        <v>35.37114323</v>
       </c>
       <c r="G367" t="n">
-        <v>-75.14732045</v>
-      </c>
+        <v>-111.510376</v>
+      </c>
+      <c r="H367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -11734,30 +12231,31 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt Birthplace National Historic Site</t>
+          <t>Tallgrass Prairie National Preserve</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>thrb</t>
+          <t>tapr</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>40.7386469</v>
+        <v>38.44023613</v>
       </c>
       <c r="G368" t="n">
-        <v>-73.98903703000001</v>
-      </c>
+        <v>-96.5670822</v>
+      </c>
+      <c r="H368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -11765,30 +12263,31 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt Inaugural National Historic Site</t>
+          <t>Thaddeus Kosciuszko National Memorial</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>thri</t>
+          <t>thko</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>42.90146781</v>
+        <v>39.94345312</v>
       </c>
       <c r="G369" t="n">
-        <v>-78.87248411</v>
-      </c>
+        <v>-75.14732045</v>
+      </c>
+      <c r="H369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -11796,30 +12295,31 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt Island</t>
+          <t>Theodore Roosevelt Birthplace National Historic Site</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>thrb</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F370" t="n">
-        <v>38.89584162</v>
+        <v>40.7386469</v>
       </c>
       <c r="G370" t="n">
-        <v>-77.06241918000001</v>
-      </c>
+        <v>-73.98903703000001</v>
+      </c>
+      <c r="H370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -11827,30 +12327,31 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Theodore Roosevelt National Park</t>
+          <t>Theodore Roosevelt Inaugural National Historic Site</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>thro</t>
+          <t>thri</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>ND</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F371" t="n">
-        <v>47.17777274</v>
+        <v>42.90146781</v>
       </c>
       <c r="G371" t="n">
-        <v>-103.4300083</v>
-      </c>
+        <v>-78.87248411</v>
+      </c>
+      <c r="H371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -11858,30 +12359,31 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Thomas Edison National Historical Park</t>
+          <t>Theodore Roosevelt Island</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>edis</t>
+          <t>this</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F372" t="n">
-        <v>40.78549896</v>
+        <v>38.89584162</v>
       </c>
       <c r="G372" t="n">
-        <v>-74.23821139</v>
-      </c>
+        <v>-77.06241918000001</v>
+      </c>
+      <c r="H372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -11889,29 +12391,32 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Thomas Jefferson Memorial</t>
+          <t>Theodore Roosevelt National Park</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>thje</t>
+          <t>thro</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="F373" t="n">
-        <v>38.88101431</v>
+        <v>47.17777274</v>
       </c>
       <c r="G373" t="n">
-        <v>-77.03632571999999</v>
+        <v>-103.4300083</v>
+      </c>
+      <c r="H373" s="2" t="n">
+        <v>28804</v>
       </c>
     </row>
     <row r="374">
@@ -11920,30 +12425,31 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Thomas Stone National Historic Site</t>
+          <t>Thomas Edison National Historical Park</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>thst</t>
+          <t>edis</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="F374" t="n">
-        <v>38.52934443</v>
+        <v>40.78549896</v>
       </c>
       <c r="G374" t="n">
-        <v>-77.037813</v>
-      </c>
+        <v>-74.23821139</v>
+      </c>
+      <c r="H374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -11951,30 +12457,31 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Timpanogos Cave National Monument</t>
+          <t>Thomas Jefferson Memorial</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>tica</t>
+          <t>thje</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F375" t="n">
-        <v>40.44039719</v>
+        <v>38.88101431</v>
       </c>
       <c r="G375" t="n">
-        <v>-111.7093944</v>
-      </c>
+        <v>-77.03632571999999</v>
+      </c>
+      <c r="H375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -11982,30 +12489,31 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Timucuan Ecological and Historic Preserve</t>
+          <t>Thomas Stone National Historic Site</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>timu</t>
+          <t>thst</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F376" t="n">
-        <v>30.47251894</v>
+        <v>38.52934443</v>
       </c>
       <c r="G376" t="n">
-        <v>-81.49950104</v>
-      </c>
+        <v>-77.037813</v>
+      </c>
+      <c r="H376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -12013,12 +12521,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tonto National Monument</t>
+          <t>Timpanogos Cave National Monument</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>tont</t>
+          <t>tica</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -12028,15 +12536,16 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="F377" t="n">
-        <v>33.64842945</v>
+        <v>40.44039719</v>
       </c>
       <c r="G377" t="n">
-        <v>-111.1135627</v>
-      </c>
+        <v>-111.7093944</v>
+      </c>
+      <c r="H377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -12044,30 +12553,31 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tule Lake National Monument</t>
+          <t>Timucuan Ecological and Historic Preserve</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>tule</t>
+          <t>timu</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>41.88727902</v>
+        <v>30.47251894</v>
       </c>
       <c r="G378" t="n">
-        <v>-121.3744818</v>
-      </c>
+        <v>-81.49950104</v>
+      </c>
+      <c r="H378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -12075,12 +12585,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tule Springs Fossil Beds National Monument</t>
+          <t>Tonto National Monument</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>tusk</t>
+          <t>tont</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -12090,15 +12600,16 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F379" t="n">
-        <v>36.3893217</v>
+        <v>33.64842945</v>
       </c>
       <c r="G379" t="n">
-        <v>-115.3202223</v>
-      </c>
+        <v>-111.1135627</v>
+      </c>
+      <c r="H379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -12106,30 +12617,31 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tumacácori National Historical Park</t>
+          <t>Tule Lake National Monument</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>tuma</t>
+          <t>tule</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F380" t="n">
-        <v>31.56120725</v>
+        <v>41.88727902</v>
       </c>
       <c r="G380" t="n">
-        <v>-111.0385236</v>
-      </c>
+        <v>-121.3744818</v>
+      </c>
+      <c r="H380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -12137,30 +12649,31 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tupelo National Battlefield</t>
+          <t>Tule Springs Fossil Beds National Monument</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>tupe</t>
+          <t>tusk</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>National Battlefields</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="F381" t="n">
-        <v>34.25557705</v>
+        <v>36.3893217</v>
       </c>
       <c r="G381" t="n">
-        <v>-88.73708623</v>
-      </c>
+        <v>-115.3202223</v>
+      </c>
+      <c r="H381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -12168,30 +12681,31 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tuskegee Airmen National Historic Site</t>
+          <t>Tumacácori National Historical Park</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>tuai</t>
+          <t>tuma</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F382" t="n">
-        <v>32.45538671</v>
+        <v>31.56120725</v>
       </c>
       <c r="G382" t="n">
-        <v>-85.67983321</v>
-      </c>
+        <v>-111.0385236</v>
+      </c>
+      <c r="H382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -12199,30 +12713,31 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tuskegee Institute National Historic Site</t>
+          <t>Tupelo National Battlefield</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>tuin</t>
+          <t>tupe</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Battlefields</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F383" t="n">
-        <v>32.42962115</v>
+        <v>34.25557705</v>
       </c>
       <c r="G383" t="n">
-        <v>-85.70488498</v>
-      </c>
+        <v>-88.73708623</v>
+      </c>
+      <c r="H383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -12230,30 +12745,31 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Tuzigoot National Monument</t>
+          <t>Tuskegee Airmen National Historic Site</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>tuzi</t>
+          <t>tuai</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F384" t="n">
-        <v>34.77296377</v>
+        <v>32.45538671</v>
       </c>
       <c r="G384" t="n">
-        <v>-112.0279069</v>
-      </c>
+        <v>-85.67983321</v>
+      </c>
+      <c r="H384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -12261,12 +12777,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ulysses S. Grant National Historic Site</t>
+          <t>Tuskegee Institute National Historic Site</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>ulsg</t>
+          <t>tuin</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -12276,15 +12792,16 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F385" t="n">
-        <v>38.55182374</v>
+        <v>32.42962115</v>
       </c>
       <c r="G385" t="n">
-        <v>-90.35169255</v>
-      </c>
+        <v>-85.70488498</v>
+      </c>
+      <c r="H385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -12292,30 +12809,31 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Upper Delaware Scenic and Recreational River</t>
+          <t>Tuzigoot National Monument</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>upde</t>
+          <t>tuzi</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>National Wild and Scenic Rivers and Riverways</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>NY,PA</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F386" t="n">
-        <v>41.66172578</v>
+        <v>34.77296377</v>
       </c>
       <c r="G386" t="n">
-        <v>-75.03861562</v>
-      </c>
+        <v>-112.0279069</v>
+      </c>
+      <c r="H386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -12323,30 +12841,31 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Valles Caldera National Preserve</t>
+          <t>Ulysses S. Grant National Historic Site</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>vall</t>
+          <t>ulsg</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="F387" t="n">
-        <v>35.91682872</v>
+        <v>38.55182374</v>
       </c>
       <c r="G387" t="n">
-        <v>-106.5195724</v>
-      </c>
+        <v>-90.35169255</v>
+      </c>
+      <c r="H387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -12354,30 +12873,31 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Valley Forge National Historical Park</t>
+          <t>Upper Delaware Scenic and Recreational River</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>vafo</t>
+          <t>upde</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Wild and Scenic Rivers and Riverways</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NY,PA</t>
         </is>
       </c>
       <c r="F388" t="n">
-        <v>40.10054985</v>
+        <v>41.66172578</v>
       </c>
       <c r="G388" t="n">
-        <v>-75.44581889</v>
-      </c>
+        <v>-75.03861562</v>
+      </c>
+      <c r="H388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -12385,30 +12905,31 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Vanderbilt Mansion National Historic Site</t>
+          <t>Valles Caldera National Preserve</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>vama</t>
+          <t>vall</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="F389" t="n">
-        <v>41.79697937</v>
+        <v>35.91682872</v>
       </c>
       <c r="G389" t="n">
-        <v>-73.94205556999999</v>
-      </c>
+        <v>-106.5195724</v>
+      </c>
+      <c r="H389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -12416,30 +12937,31 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Vicksburg National Military Park</t>
+          <t>Valley Forge National Historical Park</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>vick</t>
+          <t>vafo</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>National Military Parks</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>MS,LA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>32.36212860000001</v>
+        <v>40.10054985</v>
       </c>
       <c r="G390" t="n">
-        <v>-90.85030186</v>
-      </c>
+        <v>-75.44581889</v>
+      </c>
+      <c r="H390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -12447,30 +12969,31 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Vietnam Veterans Memorial</t>
+          <t>Vanderbilt Mansion National Historic Site</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>vive</t>
+          <t>vama</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>38.89096297</v>
+        <v>41.79697937</v>
       </c>
       <c r="G391" t="n">
-        <v>-77.04765734999999</v>
-      </c>
+        <v>-73.94205556999999</v>
+      </c>
+      <c r="H391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -12478,30 +13001,31 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Virgin Islands Coral Reef National Monument</t>
+          <t>Vicksburg National Military Park</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>vicr</t>
+          <t>vick</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Military Parks</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>VI</t>
+          <t>MS,LA</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>18.28996918</v>
+        <v>32.36212860000001</v>
       </c>
       <c r="G392" t="n">
-        <v>-64.70683395</v>
-      </c>
+        <v>-90.85030186</v>
+      </c>
+      <c r="H392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -12509,30 +13033,31 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Virgin Islands National Park</t>
+          <t>Vietnam Veterans Memorial</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>viis</t>
+          <t>vive</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>VI</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>18.34279656</v>
+        <v>38.89096297</v>
       </c>
       <c r="G393" t="n">
-        <v>-64.74194451</v>
-      </c>
+        <v>-77.04765734999999</v>
+      </c>
+      <c r="H393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -12540,30 +13065,31 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Voyageurs National Park</t>
+          <t>Virgin Islands Coral Reef National Monument</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>voya</t>
+          <t>vicr</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>VI</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>48.48370609</v>
+        <v>18.28996918</v>
       </c>
       <c r="G394" t="n">
-        <v>-92.83829129999999</v>
-      </c>
+        <v>-64.70683395</v>
+      </c>
+      <c r="H394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -12571,29 +13097,32 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Waco Mammoth National Monument</t>
+          <t>Virgin Islands National Park</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>waco</t>
+          <t>viis</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>VI</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>31.60465887</v>
+        <v>18.34279656</v>
       </c>
       <c r="G395" t="n">
-        <v>-97.17606143</v>
+        <v>-64.74194451</v>
+      </c>
+      <c r="H395" s="2" t="n">
+        <v>20669</v>
       </c>
     </row>
     <row r="396">
@@ -12602,29 +13131,32 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Walnut Canyon National Monument</t>
+          <t>Voyageurs National Park</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>waca</t>
+          <t>voya</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>35.16822994</v>
+        <v>48.48370609</v>
       </c>
       <c r="G396" t="n">
-        <v>-111.5024239</v>
+        <v>-92.83829129999999</v>
+      </c>
+      <c r="H396" s="2" t="n">
+        <v>25941</v>
       </c>
     </row>
     <row r="397">
@@ -12633,30 +13165,31 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>War in the Pacific National Historical Park</t>
+          <t>Waco Mammoth National Monument</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>wapa</t>
+          <t>waco</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>13.43795691</v>
+        <v>31.60465887</v>
       </c>
       <c r="G397" t="n">
-        <v>144.6922461</v>
-      </c>
+        <v>-97.17606143</v>
+      </c>
+      <c r="H397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -12664,30 +13197,31 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Washington Monument</t>
+          <t>Walnut Canyon National Monument</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>wamo</t>
+          <t>waca</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>38.88865182</v>
+        <v>35.16822994</v>
       </c>
       <c r="G398" t="n">
-        <v>-77.03546586</v>
-      </c>
+        <v>-111.5024239</v>
+      </c>
+      <c r="H398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -12695,30 +13229,31 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Washita Battlefield National Historic Site</t>
+          <t>War in the Pacific National Historical Park</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>waba</t>
+          <t>wapa</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>35.62083963</v>
+        <v>13.43795691</v>
       </c>
       <c r="G399" t="n">
-        <v>-99.70445143000001</v>
-      </c>
+        <v>144.6922461</v>
+      </c>
+      <c r="H399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -12726,30 +13261,31 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Weir Farm National Historic Site</t>
+          <t>Washington Monument</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>wefa</t>
+          <t>wamo</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>41.25886268</v>
+        <v>38.88865182</v>
       </c>
       <c r="G400" t="n">
-        <v>-73.45452542</v>
-      </c>
+        <v>-77.03546586</v>
+      </c>
+      <c r="H400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -12757,30 +13293,31 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Whiskeytown-Shasta-Trinity National Recreation Area</t>
+          <t>Washita Battlefield National Historic Site</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>whis</t>
+          <t>waba</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>National Recreation Areas</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>40.61359941</v>
+        <v>35.62083963</v>
       </c>
       <c r="G401" t="n">
-        <v>-122.6022657</v>
-      </c>
+        <v>-99.70445143000001</v>
+      </c>
+      <c r="H401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -12788,30 +13325,31 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>White House</t>
+          <t>Weir Farm National Historic Site</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>whsa</t>
+          <t>wefa</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Other Designations</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>32.77907858</v>
+        <v>41.25886268</v>
       </c>
       <c r="G402" t="n">
-        <v>-106.3333461</v>
-      </c>
+        <v>-73.45452542</v>
+      </c>
+      <c r="H402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -12819,30 +13357,31 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>White Sands National Monument</t>
+          <t>Whiskeytown-Shasta-Trinity National Recreation Area</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>whsa</t>
+          <t>whis</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Recreation Areas</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>32.77907858</v>
+        <v>40.61359941</v>
       </c>
       <c r="G403" t="n">
-        <v>-106.3333461</v>
-      </c>
+        <v>-122.6022657</v>
+      </c>
+      <c r="H403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -12850,30 +13389,31 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Whitman Mission National Historic Site</t>
+          <t>White House</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>whmi</t>
+          <t>whsa</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>Other Designations</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>46.04119286</v>
+        <v>32.77907858</v>
       </c>
       <c r="G404" t="n">
-        <v>-118.4629388</v>
-      </c>
+        <v>-106.3333461</v>
+      </c>
+      <c r="H404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -12881,30 +13421,31 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>William Howard Taft National Historic Site</t>
+          <t>White Sands National Monument</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>wiho</t>
+          <t>whsa</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>National Historic Sites</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>39.11970352</v>
+        <v>32.77907858</v>
       </c>
       <c r="G405" t="n">
-        <v>-84.50758951</v>
-      </c>
+        <v>-106.3333461</v>
+      </c>
+      <c r="H405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -12912,30 +13453,31 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Wilson's Creek National Battlefield</t>
+          <t>Whitman Mission National Historic Site</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>wicr</t>
+          <t>whmi</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>National Battlefields</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>37.1000127</v>
+        <v>46.04119286</v>
       </c>
       <c r="G406" t="n">
-        <v>-93.40986703999999</v>
-      </c>
+        <v>-118.4629388</v>
+      </c>
+      <c r="H406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -12943,30 +13485,31 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Wind Cave National Park</t>
+          <t>William Howard Taft National Historic Site</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>wica</t>
+          <t>wiho</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Historic Sites</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>43.58012365</v>
+        <v>39.11970352</v>
       </c>
       <c r="G407" t="n">
-        <v>-103.4394709</v>
-      </c>
+        <v>-84.50758951</v>
+      </c>
+      <c r="H407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -12974,30 +13517,31 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Wolf Trap National Park for the Performing Arts</t>
+          <t>Wilson's Creek National Battlefield</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>wotr</t>
+          <t>wicr</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Other Designations</t>
+          <t>National Battlefields</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>38.93854526</v>
+        <v>37.1000127</v>
       </c>
       <c r="G408" t="n">
-        <v>-77.265089</v>
-      </c>
+        <v>-93.40986703999999</v>
+      </c>
+      <c r="H408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -13005,29 +13549,32 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Women's Rights National Historical Park</t>
+          <t>Wind Cave National Park</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>wori</t>
+          <t>wica</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>National Historical Parks</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>42.90817073</v>
+        <v>43.58012365</v>
       </c>
       <c r="G409" t="n">
-        <v>-76.81655558</v>
+        <v>-103.4394709</v>
+      </c>
+      <c r="H409" s="2" t="n">
+        <v>1105</v>
       </c>
     </row>
     <row r="410">
@@ -13036,30 +13583,31 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>World War I Memorial</t>
+          <t>Wolf Trap National Park for the Performing Arts</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>wwii</t>
+          <t>wotr</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>Other Designations</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>38.88923917</v>
+        <v>38.93854526</v>
       </c>
       <c r="G410" t="n">
-        <v>-77.0403759</v>
-      </c>
+        <v>-77.265089</v>
+      </c>
+      <c r="H410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -13067,30 +13615,31 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>World War II Memorial</t>
+          <t>Women's Rights National Historical Park</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>wwii</t>
+          <t>wori</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Historical Parks</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>NY</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>38.88923917</v>
+        <v>42.90817073</v>
       </c>
       <c r="G411" t="n">
-        <v>-77.0403759</v>
-      </c>
+        <v>-76.81655558</v>
+      </c>
+      <c r="H411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -13098,30 +13647,31 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Wrangell-St. Elias National Park</t>
+          <t>World War I Memorial</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>wrst</t>
+          <t>wwii</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>61.4182147</v>
+        <v>38.88923917</v>
       </c>
       <c r="G412" t="n">
-        <v>-142.6028439</v>
-      </c>
+        <v>-77.0403759</v>
+      </c>
+      <c r="H412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -13129,30 +13679,31 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Wrangell-St. Elias National Preserve</t>
+          <t>World War II Memorial</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>wrst</t>
+          <t>wwii</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>61.4182147</v>
+        <v>38.88923917</v>
       </c>
       <c r="G413" t="n">
-        <v>-142.6028439</v>
-      </c>
+        <v>-77.0403759</v>
+      </c>
+      <c r="H413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -13160,29 +13711,32 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Wright Brothers National Memorial</t>
+          <t>Wrangell-St. Elias National Park</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>wrbr</t>
+          <t>wrst</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>National Memorials</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>36.01637713</v>
+        <v>61.4182147</v>
       </c>
       <c r="G414" t="n">
-        <v>-75.66997163000001</v>
+        <v>-142.6028439</v>
+      </c>
+      <c r="H414" s="2" t="n">
+        <v>29557</v>
       </c>
     </row>
     <row r="415">
@@ -13191,29 +13745,32 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Wupatki National Monument</t>
+          <t>Wrangell-St. Elias National Preserve</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>wupa</t>
+          <t>wrst</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Preserves</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>35.55741077</v>
+        <v>61.4182147</v>
       </c>
       <c r="G415" t="n">
-        <v>-111.3957216</v>
+        <v>-142.6028439</v>
+      </c>
+      <c r="H415" s="2" t="n">
+        <v>29557</v>
       </c>
     </row>
     <row r="416">
@@ -13222,30 +13779,31 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Yellowstone National Park</t>
+          <t>Wright Brothers National Memorial</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>yell</t>
+          <t>wrbr</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Memorials</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>ID,MT,WY</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>44.59824417</v>
+        <v>36.01637713</v>
       </c>
       <c r="G416" t="n">
-        <v>-110.5471695</v>
-      </c>
+        <v>-75.66997163000001</v>
+      </c>
+      <c r="H416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -13253,30 +13811,31 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Yosemite National Park</t>
+          <t>Wupatki National Monument</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>yose</t>
+          <t>wupa</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>National Parks</t>
+          <t>National Monuments</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>37.84883288</v>
+        <v>35.55741077</v>
       </c>
       <c r="G417" t="n">
-        <v>-119.5571873</v>
-      </c>
+        <v>-111.3957216</v>
+      </c>
+      <c r="H417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -13284,29 +13843,32 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Yucca House National Monument</t>
+          <t>Yellowstone National Park</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>yuho</t>
+          <t>yell</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>National Monuments</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>ID,MT,WY</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>37.24778944</v>
+        <v>44.59824417</v>
       </c>
       <c r="G418" t="n">
-        <v>-108.6861274</v>
+        <v>-110.5471695</v>
+      </c>
+      <c r="H418" s="2" t="n">
+        <v>-10166</v>
       </c>
     </row>
     <row r="419">
@@ -13315,29 +13877,32 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Yukon-Charley Rivers National Preserve</t>
+          <t>Yosemite National Park</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>yuch</t>
+          <t>yose</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>National Preserves</t>
+          <t>National Parks</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>65.09356080000001</v>
+        <v>37.84883288</v>
       </c>
       <c r="G419" t="n">
-        <v>-142.7960021</v>
+        <v>-119.5571873</v>
+      </c>
+      <c r="H419" s="2" t="n">
+        <v>-3378</v>
       </c>
     </row>
     <row r="420">
@@ -13346,29 +13911,96 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
+          <t>Yucca House National Monument</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>yuho</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>National Monuments</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="F420" t="n">
+        <v>37.24778944</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-108.6861274</v>
+      </c>
+      <c r="H420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Yukon-Charley Rivers National Preserve</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>yuch</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>National Preserves</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="F421" t="n">
+        <v>65.09356080000001</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-142.7960021</v>
+      </c>
+      <c r="H421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
           <t>Zion National Park</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
+      <c r="C422" t="inlineStr">
         <is>
           <t>zion</t>
         </is>
       </c>
-      <c r="D420" t="inlineStr">
+      <c r="D422" t="inlineStr">
         <is>
           <t>National Parks</t>
         </is>
       </c>
-      <c r="E420" t="inlineStr">
+      <c r="E422" t="inlineStr">
         <is>
           <t>UT</t>
         </is>
       </c>
-      <c r="F420" t="n">
+      <c r="F422" t="n">
         <v>37.29839254</v>
       </c>
-      <c r="G420" t="n">
+      <c r="G422" t="n">
         <v>-113.0265138</v>
+      </c>
+      <c r="H422" s="2" t="n">
+        <v>7263</v>
       </c>
     </row>
   </sheetData>

--- a/nps_parks_master_df.xlsx
+++ b/nps_parks_master_df.xlsx
@@ -4444,7 +4444,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>coro</t>
+          <t>xxx1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4452,17 +4452,9 @@
           <t>National Memorials</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>AZ</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>31.34900397</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-110.2561574</v>
-      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -7264,7 +7256,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>mabi</t>
+          <t>xxx2</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7272,17 +7264,9 @@
           <t>National Parkways</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v>43.63348732</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-72.53424638</v>
-      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
@@ -7950,7 +7934,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>xxx3</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7958,17 +7942,9 @@
           <t>National Recreation Areas</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>AZ,NV</t>
-        </is>
-      </c>
-      <c r="F235" t="n">
-        <v>35.96622528</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-114.3469067</v>
-      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
     </row>
     <row r="236">
@@ -8758,7 +8734,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>malu</t>
+          <t>mlkm</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8768,14 +8744,14 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>33.75618241</v>
+        <v>38.8862276865</v>
       </c>
       <c r="G260" t="n">
-        <v>-84.37256768</v>
+        <v>-77.0442195534</v>
       </c>
       <c r="H260" t="inlineStr"/>
     </row>
@@ -9984,7 +9960,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>jela</t>
+          <t>orca</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9994,14 +9970,14 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>29.81739855</v>
+        <v>42.10319143</v>
       </c>
       <c r="G298" t="n">
-        <v>-90.1402241</v>
+        <v>-123.4018586</v>
       </c>
       <c r="H298" t="inlineStr"/>
     </row>
@@ -11204,7 +11180,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>xxx4</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -11212,17 +11188,9 @@
           <t>National Recreation Areas</t>
         </is>
       </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>AZ,NV</t>
-        </is>
-      </c>
-      <c r="F336" t="n">
-        <v>35.96622528</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-114.3469067</v>
-      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
     </row>
     <row r="337">
@@ -12558,7 +12526,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>timu</t>
+          <t>nama</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -12568,14 +12536,14 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F378" t="n">
-        <v>30.47251894</v>
+        <v>38.88162683</v>
       </c>
       <c r="G378" t="n">
-        <v>-81.49950104</v>
+        <v>-77.03586953</v>
       </c>
       <c r="H378" t="inlineStr"/>
     </row>
@@ -13394,7 +13362,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>whsa</t>
+          <t>whho</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -13404,14 +13372,14 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>DC</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>32.77907858</v>
+        <v>38.89541886</v>
       </c>
       <c r="G404" t="n">
-        <v>-106.3333461</v>
+        <v>-77.03654147</v>
       </c>
       <c r="H404" t="inlineStr"/>
     </row>
@@ -13652,7 +13620,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>wwii</t>
+          <t>xxx6</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -13660,17 +13628,9 @@
           <t>National Memorials</t>
         </is>
       </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>DC</t>
-        </is>
-      </c>
-      <c r="F412" t="n">
-        <v>38.88923917</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-77.0403759</v>
-      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
       <c r="H412" t="inlineStr"/>
     </row>
     <row r="413">
